--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_22_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_22_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3060323.749004412</v>
+        <v>-3061928.166930743</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8983154.091635672</v>
+        <v>8983154.091635678</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>180.9722176117004</v>
+        <v>254.945525966093</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>237.48457607362</v>
       </c>
       <c r="D11" t="n">
-        <v>226.8947259232954</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>254.1420543748742</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>279.0877300443239</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>111.9438188458574</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>221.4526530200255</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>241.9427849810815</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.74486795247981</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>19.65674986725122</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>17.28089669599635</v>
+        <v>30.81635497676472</v>
       </c>
       <c r="G12" t="n">
-        <v>8.062435227577492</v>
+        <v>8.062435227577506</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.0009531574324</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.47538297455155</v>
+        <v>7.475382974551579</v>
       </c>
       <c r="S12" t="n">
-        <v>143.9556929504599</v>
+        <v>16.16737725307242</v>
       </c>
       <c r="T12" t="n">
-        <v>66.35951750204936</v>
+        <v>66.35951750204937</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8431737758271</v>
+        <v>98.05485807843957</v>
       </c>
       <c r="V12" t="n">
-        <v>105.0122714520377</v>
+        <v>105.0122714520378</v>
       </c>
       <c r="W12" t="n">
         <v>123.9066674635321</v>
       </c>
       <c r="X12" t="n">
-        <v>77.98466950608994</v>
+        <v>77.98466950608996</v>
       </c>
       <c r="Y12" t="n">
-        <v>181.2172009006418</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.04366448454977</v>
+        <v>52.04366448454978</v>
       </c>
       <c r="C13" t="n">
-        <v>39.4585054012403</v>
+        <v>39.45850540124032</v>
       </c>
       <c r="D13" t="n">
-        <v>20.82715732082482</v>
+        <v>20.82715732082484</v>
       </c>
       <c r="E13" t="n">
-        <v>18.64564694918164</v>
+        <v>18.64564694918165</v>
       </c>
       <c r="F13" t="n">
-        <v>17.63273232554371</v>
+        <v>17.63273232554373</v>
       </c>
       <c r="G13" t="n">
-        <v>38.95117859219405</v>
+        <v>38.95117859219406</v>
       </c>
       <c r="H13" t="n">
-        <v>38.67434485477813</v>
+        <v>23.31201683403494</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>74.41831073015241</v>
+        <v>89.78063875089492</v>
       </c>
       <c r="T13" t="n">
         <v>222.598335043079</v>
@@ -1591,10 +1591,10 @@
         <v>158.7346826392035</v>
       </c>
       <c r="X13" t="n">
-        <v>97.92133969164962</v>
+        <v>97.92133969164964</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.79633765470726</v>
+        <v>90.79633765470727</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>254.945525966093</v>
       </c>
       <c r="C14" t="n">
-        <v>237.48457607362</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>226.8947259232954</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>284.7244505358286</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.65528330212913</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>24.14520515773638</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>123.3341395078955</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.9427849810815</v>
       </c>
       <c r="Y14" t="n">
-        <v>108.0074426938014</v>
+        <v>258.4496229586661</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>38.74486795247982</v>
       </c>
       <c r="C15" t="n">
-        <v>44.92018329092821</v>
+        <v>44.92018329092822</v>
       </c>
       <c r="D15" t="n">
-        <v>19.65674986725122</v>
+        <v>19.65674986725124</v>
       </c>
       <c r="E15" t="n">
-        <v>29.85676475801341</v>
+        <v>29.85676475801343</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>120.6037175167199</v>
       </c>
       <c r="G15" t="n">
-        <v>8.062435227577492</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.00095315743242</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.475382974551579</v>
       </c>
       <c r="S15" t="n">
-        <v>16.16737725307241</v>
+        <v>16.16737725307242</v>
       </c>
       <c r="T15" t="n">
-        <v>66.35951750204936</v>
+        <v>66.35951750204937</v>
       </c>
       <c r="U15" t="n">
-        <v>119.0656993337589</v>
+        <v>98.05485807843957</v>
       </c>
       <c r="V15" t="n">
-        <v>105.0122714520377</v>
+        <v>105.0122714520378</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1762,31 +1762,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.04366448454977</v>
+        <v>52.04366448454978</v>
       </c>
       <c r="C16" t="n">
-        <v>39.4585054012403</v>
+        <v>39.45850540124032</v>
       </c>
       <c r="D16" t="n">
-        <v>20.82715732082482</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>29.12878922286799</v>
       </c>
       <c r="F16" t="n">
-        <v>17.63273232554371</v>
+        <v>17.63273232554373</v>
       </c>
       <c r="G16" t="n">
-        <v>38.95117859219405</v>
+        <v>38.95117859219406</v>
       </c>
       <c r="H16" t="n">
-        <v>23.31201683403493</v>
+        <v>23.31201683403494</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.879185747056169</v>
+        <v>4.879185747056155</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>74.41831073015243</v>
       </c>
       <c r="T16" t="n">
-        <v>94.81001934569147</v>
+        <v>94.81001934569149</v>
       </c>
       <c r="U16" t="n">
         <v>158.4624508371646</v>
@@ -1828,10 +1828,10 @@
         <v>158.7346826392035</v>
       </c>
       <c r="X16" t="n">
-        <v>97.92133969164962</v>
+        <v>97.92133969164964</v>
       </c>
       <c r="Y16" t="n">
-        <v>101.2794799283935</v>
+        <v>90.79633765470727</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>139.8053726064068</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C17" t="n">
-        <v>122.3444227139337</v>
+        <v>122.3444227139336</v>
       </c>
       <c r="D17" t="n">
-        <v>111.7545725636091</v>
+        <v>111.754572563609</v>
       </c>
       <c r="E17" t="n">
-        <v>139.001901015188</v>
+        <v>139.0019010151879</v>
       </c>
       <c r="F17" t="n">
-        <v>163.9475766846376</v>
+        <v>163.9475766846375</v>
       </c>
       <c r="G17" t="n">
-        <v>169.5842971761423</v>
+        <v>169.5842971761421</v>
       </c>
       <c r="H17" t="n">
-        <v>67.97353966774062</v>
+        <v>67.97353966774051</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.193986148209165</v>
+        <v>8.193986148209051</v>
       </c>
       <c r="V17" t="n">
-        <v>84.82378941306109</v>
+        <v>84.82378941306098</v>
       </c>
       <c r="W17" t="n">
-        <v>106.3124996603392</v>
+        <v>106.3124996603391</v>
       </c>
       <c r="X17" t="n">
-        <v>126.8026316213952</v>
+        <v>126.8026316213951</v>
       </c>
       <c r="Y17" t="n">
-        <v>143.3094695989798</v>
+        <v>143.3094695989797</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1932,13 +1932,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.475382974551579</v>
       </c>
       <c r="S18" t="n">
-        <v>27.03600109630013</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>175.5219538627016</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2014,16 +2014,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>81.6203680624342</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.879185747056155</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>202.20662642754</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>222.598335043079</v>
       </c>
       <c r="U19" t="n">
-        <v>43.32229747747832</v>
+        <v>43.32229747747821</v>
       </c>
       <c r="V19" t="n">
-        <v>9.209174266754189</v>
+        <v>9.209174266754076</v>
       </c>
       <c r="W19" t="n">
-        <v>43.59452927951719</v>
+        <v>43.59452927951708</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>17.15757248341381</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>139.8053726064067</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C20" t="n">
-        <v>122.3444227139337</v>
+        <v>122.3444227139336</v>
       </c>
       <c r="D20" t="n">
-        <v>111.7545725636091</v>
+        <v>111.754572563609</v>
       </c>
       <c r="E20" t="n">
         <v>139.0019010151879</v>
       </c>
       <c r="F20" t="n">
-        <v>163.9475766846376</v>
+        <v>163.9475766846375</v>
       </c>
       <c r="G20" t="n">
-        <v>169.5842971761422</v>
+        <v>169.5842971761421</v>
       </c>
       <c r="H20" t="n">
-        <v>67.9735396677406</v>
+        <v>67.97353966774051</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.193986148209136</v>
+        <v>8.193986148209051</v>
       </c>
       <c r="V20" t="n">
-        <v>84.82378941306106</v>
+        <v>84.82378941306098</v>
       </c>
       <c r="W20" t="n">
-        <v>106.3124996603392</v>
+        <v>106.3124996603391</v>
       </c>
       <c r="X20" t="n">
-        <v>126.8026316213952</v>
+        <v>126.8026316213951</v>
       </c>
       <c r="Y20" t="n">
         <v>143.3094695989797</v>
@@ -2163,7 +2163,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>56.9336079641455</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>7.475382974551579</v>
       </c>
       <c r="S21" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>8.766514103845765</v>
+        <v>175.5219538627016</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3480866176376</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.879185747056155</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>222.598335043079</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>43.32229747747829</v>
+        <v>43.32229747747821</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>9.209174266754076</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>43.59452927951708</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>46.37488905953062</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>139.8053726064068</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C23" t="n">
-        <v>122.3444227139337</v>
+        <v>122.3444227139336</v>
       </c>
       <c r="D23" t="n">
-        <v>111.7545725636091</v>
+        <v>111.754572563609</v>
       </c>
       <c r="E23" t="n">
-        <v>139.001901015188</v>
+        <v>139.0019010151879</v>
       </c>
       <c r="F23" t="n">
-        <v>163.9475766846376</v>
+        <v>163.9475766846375</v>
       </c>
       <c r="G23" t="n">
-        <v>169.5842971761423</v>
+        <v>169.5842971761421</v>
       </c>
       <c r="H23" t="n">
-        <v>67.97353966774062</v>
+        <v>67.97353966774051</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.193986148209165</v>
+        <v>8.193986148209051</v>
       </c>
       <c r="V23" t="n">
-        <v>84.82378941306109</v>
+        <v>84.82378941306098</v>
       </c>
       <c r="W23" t="n">
-        <v>106.3124996603392</v>
+        <v>106.3124996603391</v>
       </c>
       <c r="X23" t="n">
-        <v>126.8026316213952</v>
+        <v>126.8026316213951</v>
       </c>
       <c r="Y23" t="n">
-        <v>143.3094695989798</v>
+        <v>143.3094695989797</v>
       </c>
     </row>
     <row r="24">
@@ -2400,19 +2400,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>125.9981665935486</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.475382974551579</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>175.5219538627009</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.42375546485678</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>126.206007949025</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.598335043079</v>
       </c>
       <c r="U25" t="n">
-        <v>43.32229747747832</v>
+        <v>43.32229747747821</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>9.209174266754076</v>
       </c>
       <c r="W25" t="n">
-        <v>43.59452927951719</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>267.5936883037943</v>
+        <v>267.5936883037942</v>
       </c>
       <c r="C26" t="n">
-        <v>250.1327384113213</v>
+        <v>250.1327384113212</v>
       </c>
       <c r="D26" t="n">
-        <v>239.5428882609967</v>
+        <v>239.5428882609966</v>
       </c>
       <c r="E26" t="n">
-        <v>266.7902167125755</v>
+        <v>266.7902167125754</v>
       </c>
       <c r="F26" t="n">
-        <v>291.7358923820252</v>
+        <v>291.735892382025</v>
       </c>
       <c r="G26" t="n">
-        <v>297.3726128735298</v>
+        <v>297.3726128735297</v>
       </c>
       <c r="H26" t="n">
-        <v>195.7618553651282</v>
+        <v>195.761855365128</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30344563983037</v>
+        <v>30.30344563983024</v>
       </c>
       <c r="T26" t="n">
-        <v>95.74259691784476</v>
+        <v>95.74259691784464</v>
       </c>
       <c r="U26" t="n">
-        <v>135.9823018455967</v>
+        <v>135.9823018455966</v>
       </c>
       <c r="V26" t="n">
-        <v>212.6121051104486</v>
+        <v>212.6121051104485</v>
       </c>
       <c r="W26" t="n">
-        <v>234.1008153577267</v>
+        <v>234.1008153577266</v>
       </c>
       <c r="X26" t="n">
-        <v>254.5909473187828</v>
+        <v>254.5909473187826</v>
       </c>
       <c r="Y26" t="n">
-        <v>271.0977852963673</v>
+        <v>271.0977852963672</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.69182682225102</v>
+        <v>64.69182682225089</v>
       </c>
       <c r="C28" t="n">
-        <v>52.10666773894155</v>
+        <v>52.10666773894143</v>
       </c>
       <c r="D28" t="n">
-        <v>33.47531965852608</v>
+        <v>33.47531965852595</v>
       </c>
       <c r="E28" t="n">
-        <v>31.29380928688289</v>
+        <v>31.29380928688276</v>
       </c>
       <c r="F28" t="n">
-        <v>30.28089466324496</v>
+        <v>30.28089466324484</v>
       </c>
       <c r="G28" t="n">
-        <v>51.5993409298953</v>
+        <v>51.59934092989517</v>
       </c>
       <c r="H28" t="n">
-        <v>35.96017917173618</v>
+        <v>35.96017917173605</v>
       </c>
       <c r="I28" t="n">
-        <v>2.674752405338253</v>
+        <v>2.674752405338126</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.881918465969285</v>
+        <v>5.881918465969157</v>
       </c>
       <c r="S28" t="n">
-        <v>87.06647306785368</v>
+        <v>87.06647306785354</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4581816833927</v>
+        <v>107.4581816833926</v>
       </c>
       <c r="U28" t="n">
-        <v>171.1106131748658</v>
+        <v>171.1106131748657</v>
       </c>
       <c r="V28" t="n">
-        <v>136.9974899641417</v>
+        <v>136.9974899641416</v>
       </c>
       <c r="W28" t="n">
-        <v>171.3828449769047</v>
+        <v>171.3828449769046</v>
       </c>
       <c r="X28" t="n">
-        <v>110.5695020293509</v>
+        <v>110.5695020293507</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.4444999924085</v>
+        <v>103.4444999924084</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>267.5936883037943</v>
+        <v>267.5936883037942</v>
       </c>
       <c r="C29" t="n">
-        <v>250.1327384113213</v>
+        <v>250.1327384113212</v>
       </c>
       <c r="D29" t="n">
-        <v>239.5428882609967</v>
+        <v>239.5428882609966</v>
       </c>
       <c r="E29" t="n">
-        <v>266.7902167125755</v>
+        <v>266.7902167125754</v>
       </c>
       <c r="F29" t="n">
-        <v>291.7358923820252</v>
+        <v>291.735892382025</v>
       </c>
       <c r="G29" t="n">
-        <v>297.3726128735298</v>
+        <v>297.3726128735297</v>
       </c>
       <c r="H29" t="n">
-        <v>195.7618553651282</v>
+        <v>195.761855365128</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30344563983037</v>
+        <v>30.30344563983026</v>
       </c>
       <c r="T29" t="n">
-        <v>95.74259691784476</v>
+        <v>95.74259691784464</v>
       </c>
       <c r="U29" t="n">
-        <v>135.9823018455967</v>
+        <v>135.9823018455966</v>
       </c>
       <c r="V29" t="n">
-        <v>212.6121051104486</v>
+        <v>212.6121051104485</v>
       </c>
       <c r="W29" t="n">
-        <v>234.1008153577267</v>
+        <v>234.1008153577266</v>
       </c>
       <c r="X29" t="n">
-        <v>254.5909473187828</v>
+        <v>254.5909473187826</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.0977852963673</v>
+        <v>271.0977852963672</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.69182682225102</v>
+        <v>64.69182682225089</v>
       </c>
       <c r="C31" t="n">
-        <v>52.10666773894155</v>
+        <v>52.10666773894143</v>
       </c>
       <c r="D31" t="n">
-        <v>33.47531965852608</v>
+        <v>33.47531965852595</v>
       </c>
       <c r="E31" t="n">
-        <v>31.29380928688289</v>
+        <v>31.29380928688276</v>
       </c>
       <c r="F31" t="n">
-        <v>30.28089466324496</v>
+        <v>30.28089466324484</v>
       </c>
       <c r="G31" t="n">
-        <v>51.5993409298953</v>
+        <v>51.59934092989517</v>
       </c>
       <c r="H31" t="n">
-        <v>35.96017917173618</v>
+        <v>35.96017917173605</v>
       </c>
       <c r="I31" t="n">
-        <v>2.674752405338253</v>
+        <v>2.674752405338126</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.881918465969285</v>
+        <v>5.881918465969157</v>
       </c>
       <c r="S31" t="n">
-        <v>87.06647306785368</v>
+        <v>87.06647306785354</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4581816833927</v>
+        <v>107.4581816833926</v>
       </c>
       <c r="U31" t="n">
-        <v>171.1106131748658</v>
+        <v>171.1106131748657</v>
       </c>
       <c r="V31" t="n">
-        <v>136.9974899641417</v>
+        <v>136.9974899641416</v>
       </c>
       <c r="W31" t="n">
-        <v>171.3828449769047</v>
+        <v>171.3828449769046</v>
       </c>
       <c r="X31" t="n">
-        <v>110.5695020293509</v>
+        <v>110.5695020293507</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.4444999924085</v>
+        <v>103.4444999924084</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>267.5936883037944</v>
+        <v>267.5936883037942</v>
       </c>
       <c r="C32" t="n">
-        <v>250.1327384113213</v>
+        <v>250.1327384113212</v>
       </c>
       <c r="D32" t="n">
-        <v>239.5428882609967</v>
+        <v>239.5428882609966</v>
       </c>
       <c r="E32" t="n">
-        <v>266.7902167125756</v>
+        <v>266.7902167125754</v>
       </c>
       <c r="F32" t="n">
-        <v>291.7358923820252</v>
+        <v>291.735892382025</v>
       </c>
       <c r="G32" t="n">
-        <v>297.3726128735299</v>
+        <v>297.3726128735297</v>
       </c>
       <c r="H32" t="n">
-        <v>195.7618553651282</v>
+        <v>195.761855365128</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30344563983041</v>
+        <v>30.30344563983029</v>
       </c>
       <c r="T32" t="n">
-        <v>95.74259691784479</v>
+        <v>95.74259691784466</v>
       </c>
       <c r="U32" t="n">
-        <v>135.9823018455967</v>
+        <v>135.9823018455966</v>
       </c>
       <c r="V32" t="n">
-        <v>212.6121051104487</v>
+        <v>212.6121051104485</v>
       </c>
       <c r="W32" t="n">
-        <v>234.1008153577268</v>
+        <v>234.1008153577266</v>
       </c>
       <c r="X32" t="n">
-        <v>254.5909473187828</v>
+        <v>254.5909473187826</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.0977852963673</v>
+        <v>271.0977852963672</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.69182682225104</v>
+        <v>64.69182682225092</v>
       </c>
       <c r="C34" t="n">
-        <v>52.10666773894158</v>
+        <v>52.10666773894145</v>
       </c>
       <c r="D34" t="n">
-        <v>33.4753196585261</v>
+        <v>33.47531965852598</v>
       </c>
       <c r="E34" t="n">
-        <v>31.29380928688292</v>
+        <v>31.29380928688279</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28089466324499</v>
+        <v>30.28089466324487</v>
       </c>
       <c r="G34" t="n">
-        <v>51.59934092989533</v>
+        <v>51.5993409298952</v>
       </c>
       <c r="H34" t="n">
-        <v>35.96017917173621</v>
+        <v>35.96017917173608</v>
       </c>
       <c r="I34" t="n">
-        <v>2.674752405338282</v>
+        <v>2.674752405338154</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.881918465969314</v>
+        <v>5.881918465969186</v>
       </c>
       <c r="S34" t="n">
-        <v>87.06647306785371</v>
+        <v>87.06647306785356</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4581816833928</v>
+        <v>107.4581816833926</v>
       </c>
       <c r="U34" t="n">
-        <v>171.1106131748659</v>
+        <v>171.1106131748657</v>
       </c>
       <c r="V34" t="n">
-        <v>136.9974899641417</v>
+        <v>136.9974899641416</v>
       </c>
       <c r="W34" t="n">
-        <v>171.3828449769047</v>
+        <v>171.3828449769046</v>
       </c>
       <c r="X34" t="n">
-        <v>110.5695020293509</v>
+        <v>110.5695020293508</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.4444999924085</v>
+        <v>103.4444999924084</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.16496715293279</v>
+        <v>31.1649671529328</v>
       </c>
       <c r="V35" t="n">
         <v>107.7947704177847</v>
@@ -3354,16 +3354,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>38.00095315743242</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>7.475382974551579</v>
       </c>
       <c r="S36" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723476895</v>
       </c>
       <c r="V36" t="n">
-        <v>12.84309909707508</v>
+        <v>193.5930570349891</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>5.362133027435022</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3427,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.7394942895816</v>
@@ -3442,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3.883176826978158</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3484,10 +3484,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>111.5456424751814</v>
+        <v>66.56551028424082</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>5.752167336686966</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.7763536111304</v>
+        <v>162.7763536111303</v>
       </c>
       <c r="C38" t="n">
-        <v>145.3154037186574</v>
+        <v>145.3154037186573</v>
       </c>
       <c r="D38" t="n">
-        <v>134.7255535683328</v>
+        <v>134.7255535683327</v>
       </c>
       <c r="E38" t="n">
-        <v>161.9728820199116</v>
+        <v>161.9728820199115</v>
       </c>
       <c r="F38" t="n">
-        <v>186.9185576893613</v>
+        <v>186.9185576893612</v>
       </c>
       <c r="G38" t="n">
         <v>192.5552781808659</v>
       </c>
       <c r="H38" t="n">
-        <v>90.94452067246425</v>
+        <v>90.94452067246419</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.16496715293279</v>
+        <v>31.16496715293275</v>
       </c>
       <c r="V38" t="n">
         <v>107.7947704177847</v>
@@ -3569,7 +3569,7 @@
         <v>149.7736126261188</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.2804506037034</v>
+        <v>166.2804506037033</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3588,19 +3588,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>123.767411929228</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>38.00095315743242</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>7.475382974551579</v>
       </c>
       <c r="S39" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723476838</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>193.5930570349893</v>
       </c>
       <c r="W39" t="n">
-        <v>31.73749510856942</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3670,19 +3670,19 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>127.2036280615488</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H40" t="n">
-        <v>151.1003325314225</v>
+        <v>147.4622836781644</v>
       </c>
       <c r="I40" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>4.879185747056155</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T40" t="n">
-        <v>2.640846990728813</v>
+        <v>222.598335043079</v>
       </c>
       <c r="U40" t="n">
-        <v>66.29327848220194</v>
+        <v>66.29327848220188</v>
       </c>
       <c r="V40" t="n">
-        <v>32.18015527147782</v>
+        <v>32.18015527147776</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>66.56551028424076</v>
       </c>
       <c r="X40" t="n">
-        <v>5.752167336686966</v>
+        <v>5.752167336686909</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.7763536111304</v>
+        <v>162.7763536111303</v>
       </c>
       <c r="C41" t="n">
-        <v>145.3154037186574</v>
+        <v>145.3154037186573</v>
       </c>
       <c r="D41" t="n">
-        <v>134.7255535683328</v>
+        <v>134.7255535683327</v>
       </c>
       <c r="E41" t="n">
-        <v>161.9728820199116</v>
+        <v>161.9728820199115</v>
       </c>
       <c r="F41" t="n">
-        <v>186.9185576893613</v>
+        <v>186.9185576893612</v>
       </c>
       <c r="G41" t="n">
         <v>192.5552781808659</v>
       </c>
       <c r="H41" t="n">
-        <v>90.94452067246425</v>
+        <v>90.94452067246419</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.16496715293279</v>
+        <v>31.16496715293275</v>
       </c>
       <c r="V41" t="n">
         <v>107.7947704177847</v>
@@ -3806,7 +3806,7 @@
         <v>149.7736126261188</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.2804506037034</v>
+        <v>166.2804506037033</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>106.9048057476868</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>7.475382974551579</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,16 +3873,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>5.885685723476895</v>
+        <v>5.885685723476838</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>193.5930570349884</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3898,28 +3898,28 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>39.61748240375241</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H43" t="n">
-        <v>151.1003325314225</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.879185747056155</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>202.20662642754</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>222.598335043079</v>
+        <v>2.640846990728756</v>
       </c>
       <c r="U43" t="n">
-        <v>66.29327848220194</v>
+        <v>195.6973344104582</v>
       </c>
       <c r="V43" t="n">
-        <v>32.18015527147782</v>
+        <v>32.18015527147776</v>
       </c>
       <c r="W43" t="n">
-        <v>66.56551028424082</v>
+        <v>66.56551028424076</v>
       </c>
       <c r="X43" t="n">
-        <v>5.752167336686966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.7763536111304</v>
+        <v>162.7763536111303</v>
       </c>
       <c r="C44" t="n">
-        <v>145.3154037186574</v>
+        <v>145.3154037186573</v>
       </c>
       <c r="D44" t="n">
-        <v>134.7255535683328</v>
+        <v>134.7255535683327</v>
       </c>
       <c r="E44" t="n">
-        <v>161.9728820199116</v>
+        <v>161.9728820199115</v>
       </c>
       <c r="F44" t="n">
-        <v>186.9185576893613</v>
+        <v>186.9185576893612</v>
       </c>
       <c r="G44" t="n">
-        <v>192.5552781808659</v>
+        <v>192.5552781808658</v>
       </c>
       <c r="H44" t="n">
-        <v>90.94452067246425</v>
+        <v>90.94452067246419</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.16496715293279</v>
+        <v>31.16496715293274</v>
       </c>
       <c r="V44" t="n">
         <v>107.7947704177847</v>
@@ -4043,7 +4043,7 @@
         <v>149.7736126261188</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.2804506037034</v>
+        <v>166.2804506037033</v>
       </c>
     </row>
     <row r="45">
@@ -4059,13 +4059,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>58.57350987404516</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4104,16 +4104,16 @@
         <v>7.475382974551579</v>
       </c>
       <c r="S45" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723476838</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>193.593057034988</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4122,7 +4122,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4135,16 +4135,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>96.74575252917086</v>
       </c>
       <c r="D46" t="n">
-        <v>140.1616730632699</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>121.0220718256556</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>202.20662642754</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.640846990728813</v>
+        <v>2.640846990728756</v>
       </c>
       <c r="U46" t="n">
-        <v>66.29327848220194</v>
+        <v>66.29327848220188</v>
       </c>
       <c r="V46" t="n">
-        <v>32.18015527147782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>66.56551028424082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>514.4229291585232</v>
+        <v>663.3919641743128</v>
       </c>
       <c r="C11" t="n">
-        <v>514.4229291585232</v>
+        <v>423.508553998939</v>
       </c>
       <c r="D11" t="n">
-        <v>285.2363373168106</v>
+        <v>423.508553998939</v>
       </c>
       <c r="E11" t="n">
-        <v>28.52719148360427</v>
+        <v>423.508553998939</v>
       </c>
       <c r="F11" t="n">
-        <v>28.52719148360427</v>
+        <v>141.6017559743693</v>
       </c>
       <c r="G11" t="n">
-        <v>28.52719148360427</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="H11" t="n">
-        <v>28.52719148360427</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="I11" t="n">
-        <v>28.52719148360427</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="J11" t="n">
-        <v>83.71911784006807</v>
+        <v>83.71911784006784</v>
       </c>
       <c r="K11" t="n">
-        <v>217.1760266634151</v>
+        <v>217.1760266634142</v>
       </c>
       <c r="L11" t="n">
-        <v>419.6428849838421</v>
+        <v>419.6428849838414</v>
       </c>
       <c r="M11" t="n">
-        <v>676.595713496535</v>
+        <v>676.5957134965342</v>
       </c>
       <c r="N11" t="n">
-        <v>942.3201157893079</v>
+        <v>942.3201157893069</v>
       </c>
       <c r="O11" t="n">
-        <v>1179.90087257</v>
+        <v>1179.900872569999</v>
       </c>
       <c r="P11" t="n">
-        <v>1348.169550998294</v>
+        <v>1348.169550998293</v>
       </c>
       <c r="Q11" t="n">
-        <v>1426.359574180214</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="R11" t="n">
-        <v>1426.359574180214</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="S11" t="n">
-        <v>1426.359574180214</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="T11" t="n">
-        <v>1426.359574180214</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="U11" t="n">
-        <v>1426.359574180214</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="V11" t="n">
-        <v>1426.359574180214</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="W11" t="n">
-        <v>1202.670025675138</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="X11" t="n">
-        <v>958.2833741790957</v>
+        <v>1181.97292268417</v>
       </c>
       <c r="Y11" t="n">
-        <v>697.2231489683219</v>
+        <v>920.9126974733966</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>446.0571050108509</v>
+        <v>550.4235906883493</v>
       </c>
       <c r="C12" t="n">
-        <v>271.6040757297239</v>
+        <v>375.9705614072224</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7487728335105</v>
+        <v>227.0361517459711</v>
       </c>
       <c r="E12" t="n">
-        <v>92.51131782805503</v>
+        <v>67.7986967405156</v>
       </c>
       <c r="F12" t="n">
-        <v>75.05586661997791</v>
+        <v>36.67106545085426</v>
       </c>
       <c r="G12" t="n">
-        <v>66.91199265272792</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="H12" t="n">
-        <v>66.91199265272792</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="I12" t="n">
-        <v>28.52719148360427</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="J12" t="n">
-        <v>42.58127776197368</v>
+        <v>167.4114027489783</v>
       </c>
       <c r="K12" t="n">
-        <v>144.7567744385591</v>
+        <v>344.5030460572807</v>
       </c>
       <c r="L12" t="n">
-        <v>328.4668801148412</v>
+        <v>528.2131517335627</v>
       </c>
       <c r="M12" t="n">
-        <v>562.2047765654397</v>
+        <v>761.9510481841612</v>
       </c>
       <c r="N12" t="n">
-        <v>816.5376645420154</v>
+        <v>1016.283936160737</v>
       </c>
       <c r="O12" t="n">
-        <v>1026.98277387907</v>
+        <v>1226.729045497792</v>
       </c>
       <c r="P12" t="n">
-        <v>1376.296732666071</v>
+        <v>1376.29673266607</v>
       </c>
       <c r="Q12" t="n">
-        <v>1426.359574180214</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="R12" t="n">
-        <v>1418.808682286727</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="S12" t="n">
-        <v>1273.398891427677</v>
+        <v>1402.477998192714</v>
       </c>
       <c r="T12" t="n">
-        <v>1206.369075769041</v>
+        <v>1335.448182534078</v>
       </c>
       <c r="U12" t="n">
-        <v>978.2446578136604</v>
+        <v>1236.402871343735</v>
       </c>
       <c r="V12" t="n">
-        <v>872.1716563469556</v>
+        <v>1130.32986987703</v>
       </c>
       <c r="W12" t="n">
-        <v>747.0134063837919</v>
+        <v>1005.171619913866</v>
       </c>
       <c r="X12" t="n">
-        <v>668.2410129432971</v>
+        <v>926.3992264733713</v>
       </c>
       <c r="Y12" t="n">
-        <v>485.193335265881</v>
+        <v>718.6389277084174</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>204.4762474874049</v>
+        <v>188.9587444361492</v>
       </c>
       <c r="C13" t="n">
-        <v>164.619171324536</v>
+        <v>149.1016682732802</v>
       </c>
       <c r="D13" t="n">
-        <v>143.5816386772381</v>
+        <v>128.0641356259824</v>
       </c>
       <c r="E13" t="n">
-        <v>124.747651859883</v>
+        <v>109.2301488086272</v>
       </c>
       <c r="F13" t="n">
-        <v>106.9368111270105</v>
+        <v>91.41930807575477</v>
       </c>
       <c r="G13" t="n">
-        <v>67.59218628641047</v>
+        <v>52.0746832351547</v>
       </c>
       <c r="H13" t="n">
-        <v>28.52719148360427</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="I13" t="n">
-        <v>28.52719148360427</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="J13" t="n">
-        <v>28.52719148360427</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="K13" t="n">
-        <v>150.4262071982335</v>
+        <v>150.4262071982334</v>
       </c>
       <c r="L13" t="n">
-        <v>361.9414135537032</v>
+        <v>361.9414135537031</v>
       </c>
       <c r="M13" t="n">
-        <v>595.3436651297684</v>
+        <v>595.3436651297682</v>
       </c>
       <c r="N13" t="n">
-        <v>828.6307492648911</v>
+        <v>828.6307492648907</v>
       </c>
       <c r="O13" t="n">
         <v>1028.092834557912</v>
       </c>
       <c r="P13" t="n">
-        <v>1175.246424437235</v>
+        <v>1175.246424437234</v>
       </c>
       <c r="Q13" t="n">
-        <v>1193.692862342907</v>
+        <v>1193.692862342906</v>
       </c>
       <c r="R13" t="n">
-        <v>1193.692862342907</v>
+        <v>1193.692862342906</v>
       </c>
       <c r="S13" t="n">
-        <v>1118.522851504369</v>
+        <v>1103.005348453113</v>
       </c>
       <c r="T13" t="n">
-        <v>893.6760484305516</v>
+        <v>878.158545379296</v>
       </c>
       <c r="U13" t="n">
-        <v>733.61296677685</v>
+        <v>718.0954637255944</v>
       </c>
       <c r="V13" t="n">
-        <v>608.0075853360011</v>
+        <v>592.4900822847454</v>
       </c>
       <c r="W13" t="n">
-        <v>447.6695220640784</v>
+        <v>432.1520190128227</v>
       </c>
       <c r="X13" t="n">
-        <v>348.7590779310989</v>
+        <v>333.2415748798433</v>
       </c>
       <c r="Y13" t="n">
-        <v>257.0456055526067</v>
+        <v>241.528102501351</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1041.906794420593</v>
+        <v>514.4229291585229</v>
       </c>
       <c r="C14" t="n">
-        <v>802.0233842452187</v>
+        <v>514.4229291585229</v>
       </c>
       <c r="D14" t="n">
-        <v>572.8367924035061</v>
+        <v>285.2363373168106</v>
       </c>
       <c r="E14" t="n">
-        <v>316.1276465702998</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="F14" t="n">
-        <v>316.1276465702998</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="G14" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="H14" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="I14" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="J14" t="n">
-        <v>83.71911784006761</v>
+        <v>83.71911784006788</v>
       </c>
       <c r="K14" t="n">
-        <v>217.1760266634137</v>
+        <v>217.1760266634142</v>
       </c>
       <c r="L14" t="n">
-        <v>419.6428849838409</v>
+        <v>419.6428849838414</v>
       </c>
       <c r="M14" t="n">
-        <v>676.5957134965337</v>
+        <v>676.5957134965342</v>
       </c>
       <c r="N14" t="n">
-        <v>942.3201157893062</v>
+        <v>942.3201157893069</v>
       </c>
       <c r="O14" t="n">
         <v>1179.900872569999</v>
       </c>
       <c r="P14" t="n">
-        <v>1348.169550998292</v>
+        <v>1348.169550998293</v>
       </c>
       <c r="Q14" t="n">
         <v>1426.359574180212</v>
       </c>
       <c r="R14" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="S14" t="n">
-        <v>1408.525954683112</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="T14" t="n">
-        <v>1408.525954683112</v>
+        <v>1401.970478061287</v>
       </c>
       <c r="U14" t="n">
-        <v>1408.525954683112</v>
+        <v>1277.390539164423</v>
       </c>
       <c r="V14" t="n">
-        <v>1408.525954683112</v>
+        <v>1277.390539164423</v>
       </c>
       <c r="W14" t="n">
-        <v>1408.525954683112</v>
+        <v>1277.390539164423</v>
       </c>
       <c r="X14" t="n">
-        <v>1408.525954683112</v>
+        <v>1033.003887668381</v>
       </c>
       <c r="Y14" t="n">
-        <v>1299.427527719677</v>
+        <v>771.9436624576068</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>278.5931970766893</v>
+        <v>421.3444839233115</v>
       </c>
       <c r="C15" t="n">
-        <v>233.2192745606002</v>
+        <v>375.9705614072224</v>
       </c>
       <c r="D15" t="n">
-        <v>213.3639716643868</v>
+        <v>356.1152585110091</v>
       </c>
       <c r="E15" t="n">
-        <v>183.2056234239693</v>
+        <v>325.9569102705915</v>
       </c>
       <c r="F15" t="n">
-        <v>36.67106545085423</v>
+        <v>204.1349733850158</v>
       </c>
       <c r="G15" t="n">
-        <v>28.52719148360424</v>
+        <v>66.91199265272792</v>
       </c>
       <c r="H15" t="n">
-        <v>28.52719148360424</v>
+        <v>66.91199265272792</v>
       </c>
       <c r="I15" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="J15" t="n">
-        <v>42.5812777619736</v>
+        <v>143.6364427476685</v>
       </c>
       <c r="K15" t="n">
-        <v>344.5030460572804</v>
+        <v>245.8119394242538</v>
       </c>
       <c r="L15" t="n">
-        <v>528.2131517335623</v>
+        <v>429.5220451005358</v>
       </c>
       <c r="M15" t="n">
-        <v>761.9510481841608</v>
+        <v>663.2599415511343</v>
       </c>
       <c r="N15" t="n">
-        <v>1016.283936160736</v>
+        <v>1016.283936160737</v>
       </c>
       <c r="O15" t="n">
-        <v>1226.729045497791</v>
+        <v>1226.729045497792</v>
       </c>
       <c r="P15" t="n">
-        <v>1376.296732666069</v>
+        <v>1376.29673266607</v>
       </c>
       <c r="Q15" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="R15" t="n">
-        <v>1426.359574180212</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="S15" t="n">
-        <v>1410.028890086199</v>
+        <v>1402.477998192714</v>
       </c>
       <c r="T15" t="n">
-        <v>1342.999074427564</v>
+        <v>1335.448182534078</v>
       </c>
       <c r="U15" t="n">
-        <v>1222.730691262151</v>
+        <v>1236.402871343735</v>
       </c>
       <c r="V15" t="n">
-        <v>1116.657689795446</v>
+        <v>1130.32986987703</v>
       </c>
       <c r="W15" t="n">
-        <v>862.4203330672441</v>
+        <v>876.0925131488284</v>
       </c>
       <c r="X15" t="n">
-        <v>654.5688328617113</v>
+        <v>668.2410129432956</v>
       </c>
       <c r="Y15" t="n">
-        <v>446.8085340967573</v>
+        <v>460.4807141783417</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>322.9663216527589</v>
+        <v>333.5553542524422</v>
       </c>
       <c r="C16" t="n">
-        <v>283.1092454898899</v>
+        <v>293.6982780895732</v>
       </c>
       <c r="D16" t="n">
-        <v>262.0717128425921</v>
+        <v>143.5816386772375</v>
       </c>
       <c r="E16" t="n">
-        <v>114.158619260199</v>
+        <v>114.1586192601991</v>
       </c>
       <c r="F16" t="n">
-        <v>96.34777852732661</v>
+        <v>96.34777852732664</v>
       </c>
       <c r="G16" t="n">
-        <v>57.00315368672656</v>
+        <v>57.00315368672658</v>
       </c>
       <c r="H16" t="n">
         <v>33.45566193517612</v>
@@ -5434,22 +5434,22 @@
         <v>33.45566193517612</v>
       </c>
       <c r="J16" t="n">
-        <v>28.52719148360424</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="K16" t="n">
         <v>150.4262071982334</v>
       </c>
       <c r="L16" t="n">
-        <v>361.941413553703</v>
+        <v>361.9414135537031</v>
       </c>
       <c r="M16" t="n">
-        <v>595.3436651297681</v>
+        <v>595.3436651297682</v>
       </c>
       <c r="N16" t="n">
-        <v>828.6307492648906</v>
+        <v>828.6307492648907</v>
       </c>
       <c r="O16" t="n">
-        <v>1028.092834557911</v>
+        <v>1028.092834557912</v>
       </c>
       <c r="P16" t="n">
         <v>1175.246424437234</v>
@@ -5467,19 +5467,19 @@
         <v>1022.755155195589</v>
       </c>
       <c r="U16" t="n">
-        <v>862.6920735418871</v>
+        <v>862.6920735418873</v>
       </c>
       <c r="V16" t="n">
-        <v>737.0866921010381</v>
+        <v>737.0866921010384</v>
       </c>
       <c r="W16" t="n">
-        <v>576.7486288291154</v>
+        <v>576.7486288291157</v>
       </c>
       <c r="X16" t="n">
-        <v>477.838184696136</v>
+        <v>477.8381846961362</v>
       </c>
       <c r="Y16" t="n">
-        <v>375.5356797179607</v>
+        <v>386.124712317644</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>810.9578074646654</v>
+        <v>810.957807464666</v>
       </c>
       <c r="C17" t="n">
-        <v>687.377582501096</v>
+        <v>687.3775825010966</v>
       </c>
       <c r="D17" t="n">
-        <v>574.4941758711877</v>
+        <v>574.4941758711888</v>
       </c>
       <c r="E17" t="n">
-        <v>434.0882152497858</v>
+        <v>434.0882152497869</v>
       </c>
       <c r="F17" t="n">
-        <v>268.4846024370204</v>
+        <v>268.4846024370217</v>
       </c>
       <c r="G17" t="n">
-        <v>97.18733256213012</v>
+        <v>97.18733256213001</v>
       </c>
       <c r="H17" t="n">
         <v>28.52719148360424</v>
@@ -5513,19 +5513,19 @@
         <v>28.52719148360424</v>
       </c>
       <c r="J17" t="n">
-        <v>83.71911784006787</v>
+        <v>83.71911784006795</v>
       </c>
       <c r="K17" t="n">
-        <v>217.1760266634141</v>
+        <v>217.1760266634142</v>
       </c>
       <c r="L17" t="n">
-        <v>419.6428849838414</v>
+        <v>419.6428849838417</v>
       </c>
       <c r="M17" t="n">
-        <v>676.5957134965342</v>
+        <v>676.5957134965346</v>
       </c>
       <c r="N17" t="n">
-        <v>942.3201157893069</v>
+        <v>942.3201157893072</v>
       </c>
       <c r="O17" t="n">
         <v>1179.900872569999</v>
@@ -5555,10 +5555,10 @@
         <v>1225.015861835152</v>
       </c>
       <c r="X17" t="n">
-        <v>1096.932395550914</v>
+        <v>1096.932395550915</v>
       </c>
       <c r="Y17" t="n">
-        <v>952.1753555519449</v>
+        <v>952.1753555519454</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>572.72856722685</v>
+        <v>657.686643404553</v>
       </c>
       <c r="C18" t="n">
-        <v>572.72856722685</v>
+        <v>483.233614123426</v>
       </c>
       <c r="D18" t="n">
-        <v>423.7941575655988</v>
+        <v>334.2992044621748</v>
       </c>
       <c r="E18" t="n">
-        <v>264.5567025601433</v>
+        <v>175.0617494567193</v>
       </c>
       <c r="F18" t="n">
-        <v>264.5567025601433</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="G18" t="n">
-        <v>127.3337218278553</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="H18" t="n">
         <v>28.52719148360424</v>
@@ -5604,40 +5604,40 @@
         <v>562.2047765654395</v>
       </c>
       <c r="N18" t="n">
-        <v>816.5376645420151</v>
+        <v>915.228771175042</v>
       </c>
       <c r="O18" t="n">
-        <v>1026.98277387907</v>
+        <v>1125.673880512097</v>
       </c>
       <c r="P18" t="n">
-        <v>1176.550461047348</v>
+        <v>1275.241567680375</v>
       </c>
       <c r="Q18" t="n">
         <v>1426.359574180212</v>
       </c>
       <c r="R18" t="n">
-        <v>1426.359574180212</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="S18" t="n">
-        <v>1399.050482163747</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="T18" t="n">
-        <v>1202.941559740073</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="U18" t="n">
-        <v>1202.941559740073</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="V18" t="n">
-        <v>1202.941559740073</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="W18" t="n">
-        <v>948.7042030118719</v>
+        <v>1241.513779395108</v>
       </c>
       <c r="X18" t="n">
-        <v>948.7042030118719</v>
+        <v>1033.662279189575</v>
       </c>
       <c r="Y18" t="n">
-        <v>740.943904246918</v>
+        <v>825.9019804246211</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>257.8619552061956</v>
+        <v>451.9771632678815</v>
       </c>
       <c r="C19" t="n">
-        <v>257.8619552061956</v>
+        <v>451.9771632678815</v>
       </c>
       <c r="D19" t="n">
-        <v>257.8619552061956</v>
+        <v>451.9771632678815</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8619552061956</v>
+        <v>451.9771632678815</v>
       </c>
       <c r="F19" t="n">
-        <v>110.9720077082852</v>
+        <v>305.0872157699711</v>
       </c>
       <c r="G19" t="n">
-        <v>28.52719148360424</v>
+        <v>305.0872157699711</v>
       </c>
       <c r="H19" t="n">
-        <v>28.52719148360424</v>
+        <v>152.4606172533827</v>
       </c>
       <c r="I19" t="n">
-        <v>28.52719148360424</v>
+        <v>33.45566193517612</v>
       </c>
       <c r="J19" t="n">
         <v>28.52719148360424</v>
@@ -5698,25 +5698,25 @@
         <v>1193.692862342906</v>
       </c>
       <c r="S19" t="n">
-        <v>989.4437447393302</v>
+        <v>1193.692862342906</v>
       </c>
       <c r="T19" t="n">
-        <v>764.596941665513</v>
+        <v>968.8460592690888</v>
       </c>
       <c r="U19" t="n">
-        <v>720.8370452236156</v>
+        <v>925.0861628271916</v>
       </c>
       <c r="V19" t="n">
-        <v>711.534848994571</v>
+        <v>915.7839665981471</v>
       </c>
       <c r="W19" t="n">
-        <v>667.4999709344527</v>
+        <v>871.7490885380289</v>
       </c>
       <c r="X19" t="n">
-        <v>439.5104200364353</v>
+        <v>854.4182072416513</v>
       </c>
       <c r="Y19" t="n">
-        <v>439.5104200364353</v>
+        <v>633.6256280981212</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>810.9578074646654</v>
+        <v>810.9578074646655</v>
       </c>
       <c r="C20" t="n">
-        <v>687.3775825010961</v>
+        <v>687.3775825010963</v>
       </c>
       <c r="D20" t="n">
-        <v>574.4941758711878</v>
+        <v>574.4941758711882</v>
       </c>
       <c r="E20" t="n">
-        <v>434.0882152497859</v>
+        <v>434.0882152497863</v>
       </c>
       <c r="F20" t="n">
-        <v>268.4846024370206</v>
+        <v>268.4846024370211</v>
       </c>
       <c r="G20" t="n">
-        <v>97.18733256213009</v>
+        <v>97.18733256213001</v>
       </c>
       <c r="H20" t="n">
         <v>28.52719148360424</v>
@@ -5750,25 +5750,25 @@
         <v>28.52719148360424</v>
       </c>
       <c r="J20" t="n">
-        <v>83.7191178400679</v>
+        <v>83.71911784006787</v>
       </c>
       <c r="K20" t="n">
         <v>217.1760266634141</v>
       </c>
       <c r="L20" t="n">
-        <v>419.6428849838417</v>
+        <v>419.6428849838414</v>
       </c>
       <c r="M20" t="n">
         <v>676.5957134965342</v>
       </c>
       <c r="N20" t="n">
-        <v>942.3201157893068</v>
+        <v>942.3201157893069</v>
       </c>
       <c r="O20" t="n">
         <v>1179.900872569999</v>
       </c>
       <c r="P20" t="n">
-        <v>1348.169550998292</v>
+        <v>1348.169550998293</v>
       </c>
       <c r="Q20" t="n">
         <v>1426.359574180212</v>
@@ -5795,7 +5795,7 @@
         <v>1096.932395550914</v>
       </c>
       <c r="Y20" t="n">
-        <v>952.1753555519448</v>
+        <v>952.1753555519449</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>665.0674590008311</v>
+        <v>657.686643404553</v>
       </c>
       <c r="C21" t="n">
-        <v>490.6144297197042</v>
+        <v>483.233614123426</v>
       </c>
       <c r="D21" t="n">
-        <v>490.6144297197042</v>
+        <v>334.2992044621748</v>
       </c>
       <c r="E21" t="n">
-        <v>331.3769747142487</v>
+        <v>175.0617494567193</v>
       </c>
       <c r="F21" t="n">
-        <v>184.8424167411336</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="G21" t="n">
-        <v>127.3337218278553</v>
+        <v>28.52719148360424</v>
       </c>
       <c r="H21" t="n">
         <v>28.52719148360424</v>
@@ -5835,46 +5835,46 @@
         <v>144.7567744385589</v>
       </c>
       <c r="L21" t="n">
-        <v>497.7807690481613</v>
+        <v>328.4668801148409</v>
       </c>
       <c r="M21" t="n">
-        <v>731.5186654987599</v>
+        <v>562.2047765654395</v>
       </c>
       <c r="N21" t="n">
-        <v>985.8515534753355</v>
+        <v>816.5376645420151</v>
       </c>
       <c r="O21" t="n">
-        <v>1226.729045497791</v>
+        <v>1026.98277387907</v>
       </c>
       <c r="P21" t="n">
-        <v>1376.296732666069</v>
+        <v>1376.29673266607</v>
       </c>
       <c r="Q21" t="n">
         <v>1426.359574180212</v>
       </c>
       <c r="R21" t="n">
-        <v>1418.808682286725</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="S21" t="n">
-        <v>1273.398891427675</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="T21" t="n">
-        <v>1077.289969004001</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="U21" t="n">
-        <v>1077.289969004001</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="V21" t="n">
-        <v>842.1378607722586</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="W21" t="n">
-        <v>833.2827960208992</v>
+        <v>1241.513779395108</v>
       </c>
       <c r="X21" t="n">
-        <v>833.2827960208992</v>
+        <v>1033.662279189575</v>
       </c>
       <c r="Y21" t="n">
-        <v>833.2827960208992</v>
+        <v>825.9019804246211</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>160.1919254408139</v>
+        <v>647.3115253557222</v>
       </c>
       <c r="C22" t="n">
-        <v>28.52719148360424</v>
+        <v>478.3753424278153</v>
       </c>
       <c r="D22" t="n">
-        <v>28.52719148360424</v>
+        <v>328.2587030154796</v>
       </c>
       <c r="E22" t="n">
-        <v>28.52719148360424</v>
+        <v>180.3456094330865</v>
       </c>
       <c r="F22" t="n">
-        <v>28.52719148360424</v>
+        <v>33.45566193517612</v>
       </c>
       <c r="G22" t="n">
-        <v>28.52719148360424</v>
+        <v>33.45566193517612</v>
       </c>
       <c r="H22" t="n">
-        <v>28.52719148360424</v>
+        <v>33.45566193517612</v>
       </c>
       <c r="I22" t="n">
-        <v>28.52719148360424</v>
+        <v>33.45566193517612</v>
       </c>
       <c r="J22" t="n">
         <v>28.52719148360424</v>
@@ -5938,22 +5938,22 @@
         <v>1193.692862342906</v>
       </c>
       <c r="T22" t="n">
-        <v>968.8460592690888</v>
+        <v>1193.692862342906</v>
       </c>
       <c r="U22" t="n">
-        <v>925.0861628271915</v>
+        <v>1149.932965901009</v>
       </c>
       <c r="V22" t="n">
-        <v>670.4016746213047</v>
+        <v>1140.630769671964</v>
       </c>
       <c r="W22" t="n">
-        <v>380.9845045843441</v>
+        <v>1096.595891611846</v>
       </c>
       <c r="X22" t="n">
-        <v>380.9845045843441</v>
+        <v>1049.752569329492</v>
       </c>
       <c r="Y22" t="n">
-        <v>160.1919254408139</v>
+        <v>828.9599901859619</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>810.9578074646658</v>
+        <v>810.9578074646655</v>
       </c>
       <c r="C23" t="n">
-        <v>687.3775825010963</v>
+        <v>687.3775825010962</v>
       </c>
       <c r="D23" t="n">
-        <v>574.4941758711882</v>
+        <v>574.4941758711881</v>
       </c>
       <c r="E23" t="n">
-        <v>434.0882152497863</v>
+        <v>434.0882152497862</v>
       </c>
       <c r="F23" t="n">
-        <v>268.4846024370213</v>
+        <v>268.4846024370211</v>
       </c>
       <c r="G23" t="n">
-        <v>97.18733256213014</v>
+        <v>97.18733256213</v>
       </c>
       <c r="H23" t="n">
-        <v>28.52719148360426</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I23" t="n">
-        <v>28.52719148360426</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J23" t="n">
-        <v>83.7191178400679</v>
+        <v>83.71911784006787</v>
       </c>
       <c r="K23" t="n">
-        <v>217.1760266634142</v>
+        <v>217.1760266634141</v>
       </c>
       <c r="L23" t="n">
         <v>419.6428849838414</v>
@@ -6008,31 +6008,31 @@
         <v>1348.169550998293</v>
       </c>
       <c r="Q23" t="n">
-        <v>1426.359574180213</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="R23" t="n">
-        <v>1426.359574180213</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S23" t="n">
-        <v>1426.359574180213</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="T23" t="n">
-        <v>1426.359574180213</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="U23" t="n">
-        <v>1418.082820495153</v>
+        <v>1418.082820495152</v>
       </c>
       <c r="V23" t="n">
-        <v>1332.402225128425</v>
+        <v>1332.402225128424</v>
       </c>
       <c r="W23" t="n">
         <v>1225.015861835152</v>
       </c>
       <c r="X23" t="n">
-        <v>1096.932395550915</v>
+        <v>1096.932395550914</v>
       </c>
       <c r="Y23" t="n">
-        <v>952.1753555519454</v>
+        <v>952.1753555519449</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>588.2950814614567</v>
+        <v>657.686643404553</v>
       </c>
       <c r="C24" t="n">
-        <v>413.8420521803297</v>
+        <v>483.233614123426</v>
       </c>
       <c r="D24" t="n">
-        <v>286.5711768333109</v>
+        <v>334.2992044621748</v>
       </c>
       <c r="E24" t="n">
-        <v>127.3337218278554</v>
+        <v>175.0617494567193</v>
       </c>
       <c r="F24" t="n">
-        <v>127.3337218278554</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="G24" t="n">
-        <v>127.3337218278554</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="H24" t="n">
-        <v>28.52719148360426</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I24" t="n">
-        <v>28.52719148360426</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J24" t="n">
-        <v>42.58127776197362</v>
+        <v>42.58127776197358</v>
       </c>
       <c r="K24" t="n">
-        <v>144.756774438559</v>
+        <v>144.7567744385589</v>
       </c>
       <c r="L24" t="n">
         <v>328.4668801148409</v>
       </c>
       <c r="M24" t="n">
-        <v>562.2047765654395</v>
+        <v>562.2047765654394</v>
       </c>
       <c r="N24" t="n">
-        <v>816.5376645420151</v>
+        <v>816.5376645420149</v>
       </c>
       <c r="O24" t="n">
         <v>1026.98277387907</v>
       </c>
       <c r="P24" t="n">
-        <v>1176.550461047348</v>
+        <v>1376.296732666069</v>
       </c>
       <c r="Q24" t="n">
-        <v>1426.359574180213</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R24" t="n">
-        <v>1426.359574180213</v>
+        <v>1418.808682286725</v>
       </c>
       <c r="S24" t="n">
-        <v>1426.359574180213</v>
+        <v>1418.808682286725</v>
       </c>
       <c r="T24" t="n">
-        <v>1426.359574180213</v>
+        <v>1418.808682286725</v>
       </c>
       <c r="U24" t="n">
-        <v>1426.359574180213</v>
+        <v>1418.808682286725</v>
       </c>
       <c r="V24" t="n">
-        <v>1426.359574180213</v>
+        <v>1418.808682286725</v>
       </c>
       <c r="W24" t="n">
-        <v>1172.122217452011</v>
+        <v>1241.513779395108</v>
       </c>
       <c r="X24" t="n">
-        <v>964.2707172464786</v>
+        <v>1033.662279189575</v>
       </c>
       <c r="Y24" t="n">
-        <v>756.5104184815248</v>
+        <v>825.9019804246211</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>352.5084842754188</v>
+        <v>626.3667965611864</v>
       </c>
       <c r="C25" t="n">
-        <v>183.5723013475119</v>
+        <v>626.3667965611864</v>
       </c>
       <c r="D25" t="n">
-        <v>33.45566193517614</v>
+        <v>476.2501571488507</v>
       </c>
       <c r="E25" t="n">
-        <v>33.45566193517614</v>
+        <v>476.2501571488507</v>
       </c>
       <c r="F25" t="n">
-        <v>33.45566193517614</v>
+        <v>329.3602096509403</v>
       </c>
       <c r="G25" t="n">
-        <v>33.45566193517614</v>
+        <v>160.9364780453023</v>
       </c>
       <c r="H25" t="n">
-        <v>33.45566193517614</v>
+        <v>33.4556619351761</v>
       </c>
       <c r="I25" t="n">
-        <v>33.45566193517614</v>
+        <v>33.4556619351761</v>
       </c>
       <c r="J25" t="n">
-        <v>28.52719148360426</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="K25" t="n">
         <v>150.4262071982334</v>
@@ -6175,22 +6175,22 @@
         <v>1193.692862342906</v>
       </c>
       <c r="T25" t="n">
-        <v>1193.692862342906</v>
+        <v>968.8460592690888</v>
       </c>
       <c r="U25" t="n">
-        <v>1149.932965901009</v>
+        <v>925.0861628271916</v>
       </c>
       <c r="V25" t="n">
-        <v>895.2484776951218</v>
+        <v>915.7839665981471</v>
       </c>
       <c r="W25" t="n">
-        <v>851.2135996350034</v>
+        <v>626.3667965611864</v>
       </c>
       <c r="X25" t="n">
-        <v>623.2240487369861</v>
+        <v>626.3667965611864</v>
       </c>
       <c r="Y25" t="n">
-        <v>402.431469593456</v>
+        <v>626.3667965611864</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.642009607694</v>
+        <v>1619.642009607693</v>
       </c>
       <c r="C26" t="n">
         <v>1366.982677879086</v>
@@ -6209,67 +6209,67 @@
         <v>1125.02016448414</v>
       </c>
       <c r="E26" t="n">
-        <v>855.5350970977004</v>
+        <v>855.5350970976997</v>
       </c>
       <c r="F26" t="n">
-        <v>560.8523775198973</v>
+        <v>560.8523775198964</v>
       </c>
       <c r="G26" t="n">
-        <v>260.476000879968</v>
+        <v>260.4760008799679</v>
       </c>
       <c r="H26" t="n">
-        <v>62.73675303640422</v>
+        <v>62.73675303640417</v>
       </c>
       <c r="I26" t="n">
-        <v>62.73675303640422</v>
+        <v>62.73675303640417</v>
       </c>
       <c r="J26" t="n">
-        <v>285.3343284132209</v>
+        <v>117.9286793928678</v>
       </c>
       <c r="K26" t="n">
-        <v>739.6951956820203</v>
+        <v>494.0120265271769</v>
       </c>
       <c r="L26" t="n">
-        <v>1224.356221330649</v>
+        <v>1109.96348725255</v>
       </c>
       <c r="M26" t="n">
-        <v>1481.309049843342</v>
+        <v>1366.916315765243</v>
       </c>
       <c r="N26" t="n">
-        <v>1747.033452136114</v>
+        <v>2065.61417322588</v>
       </c>
       <c r="O26" t="n">
-        <v>2361.606388366924</v>
+        <v>2680.18710945669</v>
       </c>
       <c r="P26" t="n">
-        <v>2848.455787884986</v>
+        <v>2848.455787884983</v>
       </c>
       <c r="Q26" t="n">
-        <v>3136.837651820211</v>
+        <v>3136.837651820209</v>
       </c>
       <c r="R26" t="n">
-        <v>3136.837651820211</v>
+        <v>3136.837651820209</v>
       </c>
       <c r="S26" t="n">
-        <v>3106.228110769877</v>
+        <v>3106.228110769875</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.518416913469</v>
+        <v>3009.518416913466</v>
       </c>
       <c r="U26" t="n">
-        <v>2872.16255646337</v>
+        <v>2872.162556463369</v>
       </c>
       <c r="V26" t="n">
-        <v>2657.402854331604</v>
+        <v>2657.402854331603</v>
       </c>
       <c r="W26" t="n">
-        <v>2420.937384273294</v>
+        <v>2420.937384273293</v>
       </c>
       <c r="X26" t="n">
         <v>2163.774811224018</v>
       </c>
       <c r="Y26" t="n">
-        <v>1889.938664460011</v>
+        <v>1889.93866446001</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>483.6856232551819</v>
       </c>
       <c r="F27" t="n">
-        <v>337.1510652820669</v>
+        <v>337.1510652820668</v>
       </c>
       <c r="G27" t="n">
-        <v>199.928084549779</v>
+        <v>199.9280845497789</v>
       </c>
       <c r="H27" t="n">
-        <v>101.1215542055279</v>
+        <v>101.1215542055278</v>
       </c>
       <c r="I27" t="n">
-        <v>62.73675303640422</v>
+        <v>62.73675303640417</v>
       </c>
       <c r="J27" t="n">
-        <v>76.79083931477356</v>
+        <v>201.6209643017783</v>
       </c>
       <c r="K27" t="n">
-        <v>316.7609621152876</v>
+        <v>303.7964609783636</v>
       </c>
       <c r="L27" t="n">
-        <v>867.6030096419942</v>
+        <v>487.5065666546456</v>
       </c>
       <c r="M27" t="n">
-        <v>1562.388919205093</v>
+        <v>1182.292476217744</v>
       </c>
       <c r="N27" t="n">
-        <v>1816.721807181668</v>
+        <v>1911.174314794438</v>
       </c>
       <c r="O27" t="n">
-        <v>2417.090612602686</v>
+        <v>2209.114097744195</v>
       </c>
       <c r="P27" t="n">
-        <v>2566.658299770964</v>
+        <v>2358.681784912473</v>
       </c>
       <c r="Q27" t="n">
         <v>2616.721141285106</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.5256054147529</v>
+        <v>302.525605414752</v>
       </c>
       <c r="C28" t="n">
-        <v>249.8926076986503</v>
+        <v>249.8926076986495</v>
       </c>
       <c r="D28" t="n">
-        <v>216.0791534981189</v>
+        <v>216.0791534981183</v>
       </c>
       <c r="E28" t="n">
-        <v>184.4692451275301</v>
+        <v>184.4692451275296</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8824828414241</v>
+        <v>153.8824828414237</v>
       </c>
       <c r="G28" t="n">
-        <v>101.7619364475905</v>
+        <v>101.7619364475902</v>
       </c>
       <c r="H28" t="n">
-        <v>65.43852314280649</v>
+        <v>65.43852314280632</v>
       </c>
       <c r="I28" t="n">
-        <v>62.73675303640422</v>
+        <v>62.73675303640417</v>
       </c>
       <c r="J28" t="n">
-        <v>62.73675303640422</v>
+        <v>105.6461468555891</v>
       </c>
       <c r="K28" t="n">
-        <v>184.6357687510334</v>
+        <v>227.5451625702183</v>
       </c>
       <c r="L28" t="n">
-        <v>396.150975106503</v>
+        <v>439.060368925688</v>
       </c>
       <c r="M28" t="n">
-        <v>629.5532266825682</v>
+        <v>672.462620501753</v>
       </c>
       <c r="N28" t="n">
-        <v>862.8403108176908</v>
+        <v>905.7497046368755</v>
       </c>
       <c r="O28" t="n">
-        <v>1105.211789929898</v>
+        <v>1105.211789929896</v>
       </c>
       <c r="P28" t="n">
-        <v>1252.365379809221</v>
+        <v>1252.365379809219</v>
       </c>
       <c r="Q28" t="n">
-        <v>1270.811817714893</v>
+        <v>1270.811817714891</v>
       </c>
       <c r="R28" t="n">
-        <v>1264.870485931086</v>
+        <v>1264.870485931084</v>
       </c>
       <c r="S28" t="n">
-        <v>1176.924553539314</v>
+        <v>1176.924553539312</v>
       </c>
       <c r="T28" t="n">
-        <v>1068.380935677301</v>
+        <v>1068.380935677299</v>
       </c>
       <c r="U28" t="n">
-        <v>895.541932470366</v>
+        <v>895.5419324703644</v>
       </c>
       <c r="V28" t="n">
-        <v>757.1606294762834</v>
+        <v>757.160629476282</v>
       </c>
       <c r="W28" t="n">
-        <v>584.0466446511271</v>
+        <v>584.0466446511258</v>
       </c>
       <c r="X28" t="n">
-        <v>472.3602789649141</v>
+        <v>472.3602789649129</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.8708850331883</v>
+        <v>367.8708850331872</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1619.642009607695</v>
+        <v>1619.642009607694</v>
       </c>
       <c r="C29" t="n">
-        <v>1366.982677879088</v>
+        <v>1366.982677879086</v>
       </c>
       <c r="D29" t="n">
-        <v>1125.020164484141</v>
+        <v>1125.02016448414</v>
       </c>
       <c r="E29" t="n">
-        <v>855.5350970977014</v>
+        <v>855.5350970977006</v>
       </c>
       <c r="F29" t="n">
-        <v>560.8523775198981</v>
+        <v>560.8523775198976</v>
       </c>
       <c r="G29" t="n">
-        <v>260.4760008799681</v>
+        <v>260.4760008799679</v>
       </c>
       <c r="H29" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="I29" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J29" t="n">
-        <v>117.9286793928679</v>
+        <v>285.3343284132209</v>
       </c>
       <c r="K29" t="n">
-        <v>572.2895466616673</v>
+        <v>739.6951956820203</v>
       </c>
       <c r="L29" t="n">
-        <v>774.7564049820945</v>
+        <v>1199.223669889922</v>
       </c>
       <c r="M29" t="n">
-        <v>1476.727631652692</v>
+        <v>1456.176498402615</v>
       </c>
       <c r="N29" t="n">
-        <v>1742.452033945464</v>
+        <v>1721.900900695387</v>
       </c>
       <c r="O29" t="n">
-        <v>2357.024970176274</v>
+        <v>2336.473836926197</v>
       </c>
       <c r="P29" t="n">
-        <v>2843.874369694336</v>
+        <v>2823.323236444259</v>
       </c>
       <c r="Q29" t="n">
-        <v>3111.705100379486</v>
+        <v>3111.705100379484</v>
       </c>
       <c r="R29" t="n">
-        <v>3136.837651820212</v>
+        <v>3136.83765182021</v>
       </c>
       <c r="S29" t="n">
-        <v>3106.228110769878</v>
+        <v>3106.228110769877</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.51841691347</v>
+        <v>3009.518416913468</v>
       </c>
       <c r="U29" t="n">
-        <v>2872.162556463371</v>
+        <v>2872.162556463369</v>
       </c>
       <c r="V29" t="n">
-        <v>2657.402854331605</v>
+        <v>2657.402854331603</v>
       </c>
       <c r="W29" t="n">
-        <v>2420.937384273295</v>
+        <v>2420.937384273293</v>
       </c>
       <c r="X29" t="n">
-        <v>2163.77481122402</v>
+        <v>2163.774811224018</v>
       </c>
       <c r="Y29" t="n">
-        <v>1889.938664460012</v>
+        <v>1889.938664460011</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>101.1215542055279</v>
       </c>
       <c r="I30" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J30" t="n">
-        <v>76.79083931477359</v>
+        <v>201.6209643017783</v>
       </c>
       <c r="K30" t="n">
-        <v>440.7869206338117</v>
+        <v>565.6170456208165</v>
       </c>
       <c r="L30" t="n">
-        <v>624.4970263100937</v>
+        <v>1116.459093147523</v>
       </c>
       <c r="M30" t="n">
-        <v>858.2349227606921</v>
+        <v>1350.196989598122</v>
       </c>
       <c r="N30" t="n">
-        <v>1293.46715136964</v>
+        <v>1604.529877574697</v>
       </c>
       <c r="O30" t="n">
         <v>1893.835956790657</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.5256054147529</v>
+        <v>302.525605414752</v>
       </c>
       <c r="C31" t="n">
-        <v>249.8926076986504</v>
+        <v>249.8926076986496</v>
       </c>
       <c r="D31" t="n">
-        <v>216.079153498119</v>
+        <v>216.0791534981183</v>
       </c>
       <c r="E31" t="n">
-        <v>184.4692451275302</v>
+        <v>184.4692451275297</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8824828414242</v>
+        <v>153.8824828414238</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7619364475905</v>
+        <v>101.7619364475902</v>
       </c>
       <c r="H31" t="n">
-        <v>65.43852314280652</v>
+        <v>65.43852314280636</v>
       </c>
       <c r="I31" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J31" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="K31" t="n">
         <v>184.6357687510334</v>
       </c>
       <c r="L31" t="n">
-        <v>396.1509751065031</v>
+        <v>396.150975106503</v>
       </c>
       <c r="M31" t="n">
         <v>629.5532266825682</v>
@@ -6640,31 +6640,31 @@
         <v>1209.455985990034</v>
       </c>
       <c r="Q31" t="n">
-        <v>1270.811817714893</v>
+        <v>1270.811817714891</v>
       </c>
       <c r="R31" t="n">
-        <v>1264.870485931086</v>
+        <v>1264.870485931084</v>
       </c>
       <c r="S31" t="n">
-        <v>1176.924553539314</v>
+        <v>1176.924553539312</v>
       </c>
       <c r="T31" t="n">
-        <v>1068.380935677301</v>
+        <v>1068.380935677299</v>
       </c>
       <c r="U31" t="n">
-        <v>895.541932470366</v>
+        <v>895.5419324703644</v>
       </c>
       <c r="V31" t="n">
-        <v>757.1606294762834</v>
+        <v>757.160629476282</v>
       </c>
       <c r="W31" t="n">
-        <v>584.0466446511271</v>
+        <v>584.0466446511258</v>
       </c>
       <c r="X31" t="n">
-        <v>472.3602789649141</v>
+        <v>472.3602789649129</v>
       </c>
       <c r="Y31" t="n">
-        <v>367.8708850331883</v>
+        <v>367.8708850331873</v>
       </c>
     </row>
     <row r="32">
@@ -6683,61 +6683,61 @@
         <v>1125.020164484141</v>
       </c>
       <c r="E32" t="n">
-        <v>855.5350970977009</v>
+        <v>855.5350970977013</v>
       </c>
       <c r="F32" t="n">
-        <v>560.8523775198976</v>
+        <v>560.8523775198983</v>
       </c>
       <c r="G32" t="n">
-        <v>260.4760008799681</v>
+        <v>260.4760008799679</v>
       </c>
       <c r="H32" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="I32" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J32" t="n">
-        <v>285.3343284132209</v>
+        <v>117.9286793928678</v>
       </c>
       <c r="K32" t="n">
-        <v>739.6951956820203</v>
+        <v>495.7571376938441</v>
       </c>
       <c r="L32" t="n">
-        <v>1355.646656407393</v>
+        <v>698.2239960142714</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.599484920086</v>
+        <v>1400.195222684868</v>
       </c>
       <c r="N32" t="n">
-        <v>1878.323887212859</v>
+        <v>2098.893080145505</v>
       </c>
       <c r="O32" t="n">
-        <v>2361.606388366925</v>
+        <v>2336.473836926197</v>
       </c>
       <c r="P32" t="n">
-        <v>2848.455787884987</v>
+        <v>2823.323236444259</v>
       </c>
       <c r="Q32" t="n">
-        <v>3136.837651820212</v>
+        <v>3111.705100379484</v>
       </c>
       <c r="R32" t="n">
-        <v>3136.837651820212</v>
+        <v>3136.83765182021</v>
       </c>
       <c r="S32" t="n">
-        <v>3106.228110769878</v>
+        <v>3106.228110769876</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.518416913469</v>
+        <v>3009.518416913468</v>
       </c>
       <c r="U32" t="n">
-        <v>2872.162556463371</v>
+        <v>2872.16255646337</v>
       </c>
       <c r="V32" t="n">
-        <v>2657.402854331605</v>
+        <v>2657.402854331604</v>
       </c>
       <c r="W32" t="n">
-        <v>2420.937384273295</v>
+        <v>2420.937384273294</v>
       </c>
       <c r="X32" t="n">
         <v>2163.774811224019</v>
@@ -6774,22 +6774,22 @@
         <v>101.1215542055279</v>
       </c>
       <c r="I33" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J33" t="n">
-        <v>152.3788227391738</v>
+        <v>201.6209643017783</v>
       </c>
       <c r="K33" t="n">
-        <v>254.5543194157591</v>
+        <v>565.6170456208165</v>
       </c>
       <c r="L33" t="n">
-        <v>805.3963669424656</v>
+        <v>1116.459093147523</v>
       </c>
       <c r="M33" t="n">
-        <v>1039.134263393064</v>
+        <v>1350.196989598122</v>
       </c>
       <c r="N33" t="n">
-        <v>1293.46715136964</v>
+        <v>1604.529877574697</v>
       </c>
       <c r="O33" t="n">
         <v>1893.835956790657</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.5256054147532</v>
+        <v>302.5256054147522</v>
       </c>
       <c r="C34" t="n">
-        <v>249.8926076986505</v>
+        <v>249.8926076986497</v>
       </c>
       <c r="D34" t="n">
-        <v>216.0791534981191</v>
+        <v>216.0791534981184</v>
       </c>
       <c r="E34" t="n">
-        <v>184.4692451275303</v>
+        <v>184.4692451275298</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8824828414242</v>
+        <v>153.8824828414238</v>
       </c>
       <c r="G34" t="n">
-        <v>101.7619364475906</v>
+        <v>101.7619364475903</v>
       </c>
       <c r="H34" t="n">
-        <v>65.43852314280655</v>
+        <v>65.43852314280639</v>
       </c>
       <c r="I34" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J34" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="K34" t="n">
         <v>184.6357687510334</v>
       </c>
       <c r="L34" t="n">
-        <v>396.1509751065031</v>
+        <v>396.150975106503</v>
       </c>
       <c r="M34" t="n">
         <v>629.5532266825682</v>
       </c>
       <c r="N34" t="n">
-        <v>905.7497046368781</v>
+        <v>862.8403108176908</v>
       </c>
       <c r="O34" t="n">
-        <v>1105.211789929899</v>
+        <v>1062.302396110712</v>
       </c>
       <c r="P34" t="n">
-        <v>1252.365379809221</v>
+        <v>1209.455985990034</v>
       </c>
       <c r="Q34" t="n">
-        <v>1270.811817714893</v>
+        <v>1270.811817714891</v>
       </c>
       <c r="R34" t="n">
-        <v>1264.870485931086</v>
+        <v>1264.870485931084</v>
       </c>
       <c r="S34" t="n">
-        <v>1176.924553539315</v>
+        <v>1176.924553539312</v>
       </c>
       <c r="T34" t="n">
-        <v>1068.380935677302</v>
+        <v>1068.3809356773</v>
       </c>
       <c r="U34" t="n">
-        <v>895.5419324703662</v>
+        <v>895.5419324703646</v>
       </c>
       <c r="V34" t="n">
-        <v>757.1606294762836</v>
+        <v>757.1606294762822</v>
       </c>
       <c r="W34" t="n">
-        <v>584.0466446511273</v>
+        <v>584.046644651126</v>
       </c>
       <c r="X34" t="n">
-        <v>472.3602789649143</v>
+        <v>472.3602789649131</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.8708850331885</v>
+        <v>367.8708850331874</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.8582442291563</v>
+        <v>955.8582442291565</v>
       </c>
       <c r="C35" t="n">
-        <v>809.0750081497044</v>
+        <v>809.0750081497047</v>
       </c>
       <c r="D35" t="n">
-        <v>672.9885904039138</v>
+        <v>672.988590403914</v>
       </c>
       <c r="E35" t="n">
-        <v>509.3796186666294</v>
+        <v>509.3796186666296</v>
       </c>
       <c r="F35" t="n">
-        <v>320.5729947379816</v>
+        <v>320.5729947379818</v>
       </c>
       <c r="G35" t="n">
         <v>126.0727137472083</v>
@@ -6935,19 +6935,19 @@
         <v>34.20956155279995</v>
       </c>
       <c r="J35" t="n">
-        <v>256.8071369296166</v>
+        <v>146.9611554043811</v>
       </c>
       <c r="K35" t="n">
-        <v>390.2640457529629</v>
+        <v>280.4180642277274</v>
       </c>
       <c r="L35" t="n">
-        <v>592.7309040733901</v>
+        <v>703.7613884436269</v>
       </c>
       <c r="M35" t="n">
-        <v>849.6837325860829</v>
+        <v>960.7142169563198</v>
       </c>
       <c r="N35" t="n">
-        <v>1115.408134878855</v>
+        <v>1226.438619249092</v>
       </c>
       <c r="O35" t="n">
         <v>1464.019376029784</v>
@@ -6968,10 +6968,10 @@
         <v>1710.478077639998</v>
       </c>
       <c r="U35" t="n">
-        <v>1678.998312839055</v>
+        <v>1678.998312839056</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.114706356444</v>
+        <v>1570.114706356445</v>
       </c>
       <c r="W35" t="n">
         <v>1439.52533194729</v>
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>692.4422374020453</v>
+        <v>663.3690134737487</v>
       </c>
       <c r="C36" t="n">
-        <v>517.9892081209183</v>
+        <v>488.9159841926217</v>
       </c>
       <c r="D36" t="n">
-        <v>369.054798459667</v>
+        <v>339.9815745313705</v>
       </c>
       <c r="E36" t="n">
-        <v>209.8173434542115</v>
+        <v>180.744119525915</v>
       </c>
       <c r="F36" t="n">
-        <v>209.8173434542115</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="G36" t="n">
-        <v>72.59436272192362</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="H36" t="n">
-        <v>72.59436272192362</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="I36" t="n">
         <v>34.20956155279995</v>
       </c>
       <c r="J36" t="n">
-        <v>173.093772818174</v>
+        <v>48.26364783116931</v>
       </c>
       <c r="K36" t="n">
-        <v>275.2692694947594</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L36" t="n">
-        <v>643.3212189540238</v>
+        <v>334.1492501840366</v>
       </c>
       <c r="M36" t="n">
-        <v>877.0591154046224</v>
+        <v>567.8871466346352</v>
       </c>
       <c r="N36" t="n">
-        <v>1300.402439620522</v>
+        <v>822.2200346112108</v>
       </c>
       <c r="O36" t="n">
-        <v>1510.847548957577</v>
+        <v>1032.665143948266</v>
       </c>
       <c r="P36" t="n">
-        <v>1660.415236125855</v>
+        <v>1456.008468164165</v>
       </c>
       <c r="Q36" t="n">
         <v>1710.478077639998</v>
@@ -7041,25 +7041,25 @@
         <v>1702.927185746511</v>
       </c>
       <c r="S36" t="n">
-        <v>1557.517394887461</v>
+        <v>1702.927185746511</v>
       </c>
       <c r="T36" t="n">
-        <v>1361.408472463787</v>
+        <v>1702.927185746511</v>
       </c>
       <c r="U36" t="n">
-        <v>1133.284054508406</v>
+        <v>1696.98204865209</v>
       </c>
       <c r="V36" t="n">
-        <v>1120.311227137623</v>
+        <v>1501.433506192505</v>
       </c>
       <c r="W36" t="n">
-        <v>866.0738704094215</v>
+        <v>1247.196149464304</v>
       </c>
       <c r="X36" t="n">
-        <v>860.6575744221134</v>
+        <v>1039.344649258771</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.6575744221134</v>
+        <v>831.5843504938168</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>352.7499325707737</v>
+        <v>620.3636903922795</v>
       </c>
       <c r="C37" t="n">
-        <v>352.7499325707737</v>
+        <v>620.3636903922795</v>
       </c>
       <c r="D37" t="n">
-        <v>202.6332931584379</v>
+        <v>620.3636903922795</v>
       </c>
       <c r="E37" t="n">
-        <v>202.6332931584379</v>
+        <v>472.4505968098864</v>
       </c>
       <c r="F37" t="n">
-        <v>202.6332931584379</v>
+        <v>325.560649311976</v>
       </c>
       <c r="G37" t="n">
-        <v>34.20956155279995</v>
+        <v>157.136917706338</v>
       </c>
       <c r="H37" t="n">
-        <v>34.20956155279995</v>
+        <v>157.136917706338</v>
       </c>
       <c r="I37" t="n">
-        <v>34.20956155279995</v>
+        <v>38.13196238813143</v>
       </c>
       <c r="J37" t="n">
         <v>34.20956155279995</v>
@@ -7132,13 +7132,13 @@
         <v>875.0603144355777</v>
       </c>
       <c r="W37" t="n">
-        <v>762.3879482990308</v>
+        <v>807.8224252595768</v>
       </c>
       <c r="X37" t="n">
-        <v>534.3983974010134</v>
+        <v>802.0121552225193</v>
       </c>
       <c r="Y37" t="n">
-        <v>534.3983974010134</v>
+        <v>802.0121552225193</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>955.8582442291586</v>
+        <v>955.858244229157</v>
       </c>
       <c r="C38" t="n">
-        <v>809.0750081497067</v>
+        <v>809.0750081497052</v>
       </c>
       <c r="D38" t="n">
-        <v>672.9885904039161</v>
+        <v>672.9885904039146</v>
       </c>
       <c r="E38" t="n">
-        <v>509.3796186666316</v>
+        <v>509.3796186666302</v>
       </c>
       <c r="F38" t="n">
-        <v>320.5729947379839</v>
+        <v>320.5729947379825</v>
       </c>
       <c r="G38" t="n">
-        <v>126.0727137472083</v>
+        <v>126.0727137472082</v>
       </c>
       <c r="H38" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="I38" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="J38" t="n">
-        <v>89.40148790926364</v>
+        <v>256.8071369296166</v>
       </c>
       <c r="K38" t="n">
-        <v>222.8583967326099</v>
+        <v>501.2945301231996</v>
       </c>
       <c r="L38" t="n">
-        <v>425.3252550530372</v>
+        <v>703.7613884436269</v>
       </c>
       <c r="M38" t="n">
-        <v>682.27808356573</v>
+        <v>960.7142169563198</v>
       </c>
       <c r="N38" t="n">
-        <v>1105.62140778163</v>
+        <v>1226.438619249092</v>
       </c>
       <c r="O38" t="n">
-        <v>1343.202164562322</v>
+        <v>1464.019376029784</v>
       </c>
       <c r="P38" t="n">
-        <v>1511.470842990616</v>
+        <v>1632.288054458078</v>
       </c>
       <c r="Q38" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077639998</v>
       </c>
       <c r="R38" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077639998</v>
       </c>
       <c r="S38" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077639998</v>
       </c>
       <c r="T38" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077639998</v>
       </c>
       <c r="U38" t="n">
-        <v>1678.998312839058</v>
+        <v>1678.998312839056</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.114706356447</v>
+        <v>1570.114706356445</v>
       </c>
       <c r="W38" t="n">
-        <v>1439.525331947292</v>
+        <v>1439.525331947291</v>
       </c>
       <c r="X38" t="n">
-        <v>1288.238854547172</v>
+        <v>1288.238854547171</v>
       </c>
       <c r="Y38" t="n">
-        <v>1120.278803432321</v>
+        <v>1120.278803432319</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>658.2223702038908</v>
+        <v>663.3690134737487</v>
       </c>
       <c r="C39" t="n">
-        <v>483.7693409227638</v>
+        <v>488.9159841926217</v>
       </c>
       <c r="D39" t="n">
-        <v>334.8349312615126</v>
+        <v>339.9815745313705</v>
       </c>
       <c r="E39" t="n">
-        <v>334.8349312615126</v>
+        <v>180.744119525915</v>
       </c>
       <c r="F39" t="n">
-        <v>209.8173434542116</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="G39" t="n">
-        <v>72.59436272192366</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="H39" t="n">
-        <v>72.59436272192366</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="I39" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="J39" t="n">
-        <v>48.26364783116935</v>
+        <v>48.26364783116931</v>
       </c>
       <c r="K39" t="n">
-        <v>412.2597291502075</v>
+        <v>354.8459124694446</v>
       </c>
       <c r="L39" t="n">
-        <v>595.9698348264894</v>
+        <v>538.5560181457265</v>
       </c>
       <c r="M39" t="n">
-        <v>829.707731277088</v>
+        <v>772.2939145963251</v>
       </c>
       <c r="N39" t="n">
-        <v>1084.040619253664</v>
+        <v>1026.626802572901</v>
       </c>
       <c r="O39" t="n">
-        <v>1294.485728590719</v>
+        <v>1237.071911909956</v>
       </c>
       <c r="P39" t="n">
-        <v>1660.415236125857</v>
+        <v>1660.415236125855</v>
       </c>
       <c r="Q39" t="n">
-        <v>1710.47807764</v>
+        <v>1710.478077639998</v>
       </c>
       <c r="R39" t="n">
-        <v>1702.927185746513</v>
+        <v>1702.927185746511</v>
       </c>
       <c r="S39" t="n">
-        <v>1557.517394887463</v>
+        <v>1702.927185746511</v>
       </c>
       <c r="T39" t="n">
-        <v>1361.408472463789</v>
+        <v>1702.927185746511</v>
       </c>
       <c r="U39" t="n">
-        <v>1133.284054508408</v>
+        <v>1696.98204865209</v>
       </c>
       <c r="V39" t="n">
-        <v>898.1319462766655</v>
+        <v>1501.433506192505</v>
       </c>
       <c r="W39" t="n">
-        <v>866.0738704094236</v>
+        <v>1247.196149464304</v>
       </c>
       <c r="X39" t="n">
-        <v>658.2223702038908</v>
+        <v>1039.344649258771</v>
       </c>
       <c r="Y39" t="n">
-        <v>658.2223702038908</v>
+        <v>831.5843504938168</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>581.219576078989</v>
+        <v>475.518520623332</v>
       </c>
       <c r="C40" t="n">
-        <v>581.219576078989</v>
+        <v>475.518520623332</v>
       </c>
       <c r="D40" t="n">
-        <v>581.219576078989</v>
+        <v>475.518520623332</v>
       </c>
       <c r="E40" t="n">
-        <v>581.219576078989</v>
+        <v>475.518520623332</v>
       </c>
       <c r="F40" t="n">
-        <v>434.3296285810786</v>
+        <v>475.518520623332</v>
       </c>
       <c r="G40" t="n">
-        <v>305.841115387595</v>
+        <v>307.094789017694</v>
       </c>
       <c r="H40" t="n">
-        <v>153.2145168710066</v>
+        <v>158.1429873225784</v>
       </c>
       <c r="I40" t="n">
-        <v>34.2095615528</v>
+        <v>39.13803200437183</v>
       </c>
       <c r="J40" t="n">
-        <v>34.2095615528</v>
+        <v>34.20956155279995</v>
       </c>
       <c r="K40" t="n">
         <v>156.1085772674292</v>
@@ -7354,28 +7354,28 @@
         <v>1199.375232412102</v>
       </c>
       <c r="R40" t="n">
-        <v>1199.375232412102</v>
+        <v>1077.13071541649</v>
       </c>
       <c r="S40" t="n">
-        <v>1199.375232412102</v>
+        <v>872.8815978129142</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.707710199244</v>
+        <v>648.0347947390969</v>
       </c>
       <c r="U40" t="n">
-        <v>1129.744802641465</v>
+        <v>581.0718871813173</v>
       </c>
       <c r="V40" t="n">
-        <v>1097.239595296537</v>
+        <v>548.5666798363902</v>
       </c>
       <c r="W40" t="n">
-        <v>807.8224252595767</v>
+        <v>481.3287906603895</v>
       </c>
       <c r="X40" t="n">
-        <v>802.0121552225191</v>
+        <v>475.518520623332</v>
       </c>
       <c r="Y40" t="n">
-        <v>581.219576078989</v>
+        <v>475.518520623332</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>955.8582442291565</v>
+        <v>955.8582442291562</v>
       </c>
       <c r="C41" t="n">
-        <v>809.0750081497044</v>
+        <v>809.0750081497042</v>
       </c>
       <c r="D41" t="n">
-        <v>672.9885904039138</v>
+        <v>672.9885904039136</v>
       </c>
       <c r="E41" t="n">
-        <v>509.3796186666295</v>
+        <v>509.3796186666293</v>
       </c>
       <c r="F41" t="n">
-        <v>320.5729947379818</v>
+        <v>320.5729947379816</v>
       </c>
       <c r="G41" t="n">
-        <v>126.0727137472083</v>
+        <v>126.0727137472082</v>
       </c>
       <c r="H41" t="n">
-        <v>34.20956155279995</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="I41" t="n">
-        <v>34.20956155279995</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="J41" t="n">
         <v>89.40148790926358</v>
@@ -7418,7 +7418,7 @@
         <v>425.3252550530372</v>
       </c>
       <c r="M41" t="n">
-        <v>848.6685792689366</v>
+        <v>848.6685792689364</v>
       </c>
       <c r="N41" t="n">
         <v>1114.392981561709</v>
@@ -7427,19 +7427,19 @@
         <v>1351.973738342401</v>
       </c>
       <c r="P41" t="n">
-        <v>1632.288054458078</v>
+        <v>1520.242416770695</v>
       </c>
       <c r="Q41" t="n">
-        <v>1710.478077639998</v>
+        <v>1710.478077639997</v>
       </c>
       <c r="R41" t="n">
-        <v>1710.478077639998</v>
+        <v>1710.478077639997</v>
       </c>
       <c r="S41" t="n">
-        <v>1710.478077639998</v>
+        <v>1710.478077639997</v>
       </c>
       <c r="T41" t="n">
-        <v>1710.478077639998</v>
+        <v>1710.478077639997</v>
       </c>
       <c r="U41" t="n">
         <v>1678.998312839055</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>899.3985245502878</v>
+        <v>663.3690134737487</v>
       </c>
       <c r="C42" t="n">
-        <v>724.9454952691608</v>
+        <v>488.9159841926217</v>
       </c>
       <c r="D42" t="n">
-        <v>576.0110856079095</v>
+        <v>339.9815745313705</v>
       </c>
       <c r="E42" t="n">
-        <v>416.773630602454</v>
+        <v>180.744119525915</v>
       </c>
       <c r="F42" t="n">
-        <v>270.239072629339</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="G42" t="n">
-        <v>133.0160918970511</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="H42" t="n">
-        <v>34.20956155279995</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="I42" t="n">
-        <v>34.20956155279995</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="J42" t="n">
-        <v>48.26364783116931</v>
+        <v>48.26364783116929</v>
       </c>
       <c r="K42" t="n">
-        <v>150.4391445077547</v>
+        <v>354.8459124694439</v>
       </c>
       <c r="L42" t="n">
-        <v>573.7824687236541</v>
+        <v>538.5560181457258</v>
       </c>
       <c r="M42" t="n">
-        <v>807.5203651742527</v>
+        <v>772.2939145963244</v>
       </c>
       <c r="N42" t="n">
-        <v>1230.863689390152</v>
+        <v>1026.6268025729</v>
       </c>
       <c r="O42" t="n">
-        <v>1441.308798727207</v>
+        <v>1237.071911909955</v>
       </c>
       <c r="P42" t="n">
-        <v>1590.876485895485</v>
+        <v>1660.415236125854</v>
       </c>
       <c r="Q42" t="n">
-        <v>1710.478077639998</v>
+        <v>1710.478077639997</v>
       </c>
       <c r="R42" t="n">
-        <v>1710.478077639998</v>
+        <v>1702.92718574651</v>
       </c>
       <c r="S42" t="n">
-        <v>1710.478077639998</v>
+        <v>1702.92718574651</v>
       </c>
       <c r="T42" t="n">
-        <v>1710.478077639998</v>
+        <v>1702.92718574651</v>
       </c>
       <c r="U42" t="n">
-        <v>1704.532940545577</v>
+        <v>1696.982048652089</v>
       </c>
       <c r="V42" t="n">
-        <v>1469.380832313834</v>
+        <v>1501.433506192505</v>
       </c>
       <c r="W42" t="n">
-        <v>1215.143475585632</v>
+        <v>1247.196149464304</v>
       </c>
       <c r="X42" t="n">
-        <v>1215.143475585632</v>
+        <v>1039.344649258771</v>
       </c>
       <c r="Y42" t="n">
-        <v>1007.383176820679</v>
+        <v>831.5843504938168</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>376.9704584754134</v>
+        <v>671.3009876182201</v>
       </c>
       <c r="C43" t="n">
-        <v>376.9704584754134</v>
+        <v>502.3648046903132</v>
       </c>
       <c r="D43" t="n">
-        <v>226.8538190630776</v>
+        <v>502.3648046903132</v>
       </c>
       <c r="E43" t="n">
-        <v>226.8538190630776</v>
+        <v>354.4517111079201</v>
       </c>
       <c r="F43" t="n">
-        <v>186.8361600693883</v>
+        <v>207.5617636100098</v>
       </c>
       <c r="G43" t="n">
-        <v>186.8361600693883</v>
+        <v>39.13803200437182</v>
       </c>
       <c r="H43" t="n">
-        <v>34.20956155279995</v>
+        <v>39.13803200437182</v>
       </c>
       <c r="I43" t="n">
-        <v>34.20956155279995</v>
+        <v>39.13803200437182</v>
       </c>
       <c r="J43" t="n">
-        <v>34.20956155279995</v>
+        <v>34.20956155279994</v>
       </c>
       <c r="K43" t="n">
-        <v>156.1085772674292</v>
+        <v>156.1085772674291</v>
       </c>
       <c r="L43" t="n">
         <v>367.6237836228988</v>
@@ -7594,25 +7594,25 @@
         <v>1199.375232412102</v>
       </c>
       <c r="S43" t="n">
-        <v>995.1261148085259</v>
+        <v>1199.375232412102</v>
       </c>
       <c r="T43" t="n">
-        <v>770.2793117347087</v>
+        <v>1196.707710199244</v>
       </c>
       <c r="U43" t="n">
-        <v>703.3164041769289</v>
+        <v>999.0336350371653</v>
       </c>
       <c r="V43" t="n">
-        <v>670.8111968320019</v>
+        <v>966.5284276922382</v>
       </c>
       <c r="W43" t="n">
-        <v>603.573307656001</v>
+        <v>899.2905385162375</v>
       </c>
       <c r="X43" t="n">
-        <v>597.7630376189435</v>
+        <v>671.3009876182201</v>
       </c>
       <c r="Y43" t="n">
-        <v>376.9704584754134</v>
+        <v>671.3009876182201</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>955.8582442291569</v>
+        <v>955.858244229155</v>
       </c>
       <c r="C44" t="n">
-        <v>809.0750081497051</v>
+        <v>809.0750081497033</v>
       </c>
       <c r="D44" t="n">
-        <v>672.9885904039145</v>
+        <v>672.9885904039129</v>
       </c>
       <c r="E44" t="n">
-        <v>509.3796186666302</v>
+        <v>509.3796186666286</v>
       </c>
       <c r="F44" t="n">
-        <v>320.5729947379824</v>
+        <v>320.5729947379809</v>
       </c>
       <c r="G44" t="n">
-        <v>126.0727137472083</v>
+        <v>126.0727137472082</v>
       </c>
       <c r="H44" t="n">
-        <v>34.20956155279997</v>
+        <v>34.20956155279993</v>
       </c>
       <c r="I44" t="n">
-        <v>34.20956155279997</v>
+        <v>34.20956155279993</v>
       </c>
       <c r="J44" t="n">
-        <v>89.40148790926361</v>
+        <v>89.40148790926355</v>
       </c>
       <c r="K44" t="n">
-        <v>334.9040344199934</v>
+        <v>222.8583967326098</v>
       </c>
       <c r="L44" t="n">
-        <v>537.3708927404207</v>
+        <v>646.2017209485089</v>
       </c>
       <c r="M44" t="n">
-        <v>960.7142169563202</v>
+        <v>960.7142169563184</v>
       </c>
       <c r="N44" t="n">
-        <v>1226.438619249093</v>
+        <v>1226.438619249091</v>
       </c>
       <c r="O44" t="n">
-        <v>1464.019376029785</v>
+        <v>1464.019376029783</v>
       </c>
       <c r="P44" t="n">
-        <v>1632.288054458079</v>
+        <v>1632.288054458077</v>
       </c>
       <c r="Q44" t="n">
-        <v>1710.478077639998</v>
+        <v>1710.478077639996</v>
       </c>
       <c r="R44" t="n">
-        <v>1710.478077639998</v>
+        <v>1710.478077639996</v>
       </c>
       <c r="S44" t="n">
-        <v>1710.478077639998</v>
+        <v>1710.478077639996</v>
       </c>
       <c r="T44" t="n">
-        <v>1710.478077639998</v>
+        <v>1710.478077639996</v>
       </c>
       <c r="U44" t="n">
-        <v>1678.998312839056</v>
+        <v>1678.998312839054</v>
       </c>
       <c r="V44" t="n">
-        <v>1570.114706356445</v>
+        <v>1570.114706356443</v>
       </c>
       <c r="W44" t="n">
-        <v>1439.525331947291</v>
+        <v>1439.525331947289</v>
       </c>
       <c r="X44" t="n">
-        <v>1288.238854547171</v>
+        <v>1288.238854547169</v>
       </c>
       <c r="Y44" t="n">
-        <v>1120.278803432319</v>
+        <v>1120.278803432317</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>267.8277523228615</v>
+        <v>663.3690134737487</v>
       </c>
       <c r="C45" t="n">
-        <v>93.37472304173448</v>
+        <v>488.9159841926217</v>
       </c>
       <c r="D45" t="n">
-        <v>93.37472304173448</v>
+        <v>339.9815745313705</v>
       </c>
       <c r="E45" t="n">
-        <v>34.20956155279997</v>
+        <v>180.744119525915</v>
       </c>
       <c r="F45" t="n">
-        <v>34.20956155279997</v>
+        <v>34.20956155279993</v>
       </c>
       <c r="G45" t="n">
-        <v>34.20956155279997</v>
+        <v>34.20956155279993</v>
       </c>
       <c r="H45" t="n">
-        <v>34.20956155279997</v>
+        <v>34.20956155279993</v>
       </c>
       <c r="I45" t="n">
-        <v>34.20956155279997</v>
+        <v>34.20956155279993</v>
       </c>
       <c r="J45" t="n">
-        <v>173.093772818174</v>
+        <v>48.26364783116928</v>
       </c>
       <c r="K45" t="n">
-        <v>415.723334638222</v>
+        <v>150.4391445077546</v>
       </c>
       <c r="L45" t="n">
-        <v>599.433440314504</v>
+        <v>334.1492501840366</v>
       </c>
       <c r="M45" t="n">
-        <v>833.1713367651025</v>
+        <v>567.8871466346351</v>
       </c>
       <c r="N45" t="n">
-        <v>1087.504224741678</v>
+        <v>822.2200346112106</v>
       </c>
       <c r="O45" t="n">
-        <v>1510.847548957578</v>
+        <v>1032.665143948266</v>
       </c>
       <c r="P45" t="n">
-        <v>1660.415236125856</v>
+        <v>1456.008468164165</v>
       </c>
       <c r="Q45" t="n">
-        <v>1710.478077639998</v>
+        <v>1710.478077639996</v>
       </c>
       <c r="R45" t="n">
-        <v>1702.927185746512</v>
+        <v>1702.92718574651</v>
       </c>
       <c r="S45" t="n">
-        <v>1557.517394887461</v>
+        <v>1702.92718574651</v>
       </c>
       <c r="T45" t="n">
-        <v>1361.408472463788</v>
+        <v>1702.92718574651</v>
       </c>
       <c r="U45" t="n">
-        <v>1133.284054508407</v>
+        <v>1696.982048652089</v>
       </c>
       <c r="V45" t="n">
-        <v>898.1319462766639</v>
+        <v>1501.433506192505</v>
       </c>
       <c r="W45" t="n">
-        <v>643.8945895484624</v>
+        <v>1247.196149464304</v>
       </c>
       <c r="X45" t="n">
-        <v>436.0430893429295</v>
+        <v>1039.344649258771</v>
       </c>
       <c r="Y45" t="n">
-        <v>436.0430893429295</v>
+        <v>831.5843504938168</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5185206233317</v>
+        <v>136.8610143570696</v>
       </c>
       <c r="C46" t="n">
-        <v>475.5185206233317</v>
+        <v>39.1380320043718</v>
       </c>
       <c r="D46" t="n">
-        <v>333.9410730846753</v>
+        <v>39.1380320043718</v>
       </c>
       <c r="E46" t="n">
-        <v>186.0279795022822</v>
+        <v>39.1380320043718</v>
       </c>
       <c r="F46" t="n">
-        <v>39.13803200437184</v>
+        <v>39.1380320043718</v>
       </c>
       <c r="G46" t="n">
-        <v>39.13803200437184</v>
+        <v>39.1380320043718</v>
       </c>
       <c r="H46" t="n">
-        <v>39.13803200437184</v>
+        <v>39.1380320043718</v>
       </c>
       <c r="I46" t="n">
-        <v>39.13803200437184</v>
+        <v>39.1380320043718</v>
       </c>
       <c r="J46" t="n">
-        <v>34.20956155279997</v>
+        <v>34.20956155279993</v>
       </c>
       <c r="K46" t="n">
-        <v>156.1085772674292</v>
+        <v>156.1085772674291</v>
       </c>
       <c r="L46" t="n">
-        <v>367.6237836228988</v>
+        <v>367.6237836228987</v>
       </c>
       <c r="M46" t="n">
-        <v>601.0260351989639</v>
+        <v>601.0260351989638</v>
       </c>
       <c r="N46" t="n">
         <v>834.3131193340864</v>
@@ -7828,28 +7828,28 @@
         <v>1199.375232412102</v>
       </c>
       <c r="R46" t="n">
-        <v>1077.13071541649</v>
+        <v>1199.375232412102</v>
       </c>
       <c r="S46" t="n">
-        <v>872.8815978129142</v>
+        <v>1199.375232412102</v>
       </c>
       <c r="T46" t="n">
-        <v>870.2140756000567</v>
+        <v>1196.707710199244</v>
       </c>
       <c r="U46" t="n">
-        <v>803.251168042277</v>
+        <v>1129.744802641465</v>
       </c>
       <c r="V46" t="n">
-        <v>770.7459606973499</v>
+        <v>875.0603144355777</v>
       </c>
       <c r="W46" t="n">
-        <v>703.5080715213491</v>
+        <v>585.6431443986171</v>
       </c>
       <c r="X46" t="n">
-        <v>475.5185206233317</v>
+        <v>357.6535935005998</v>
       </c>
       <c r="Y46" t="n">
-        <v>475.5185206233317</v>
+        <v>136.8610143570696</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.33000427628915</v>
+        <v>40.3300042762892</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>75.67287538557275</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>201.7639107259823</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.33000427628923</v>
+        <v>40.3300042762892</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>102.0759242279746</v>
       </c>
       <c r="K15" t="n">
-        <v>201.7639107259813</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>99.68798649800715</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>99.68798649800698</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>201.7639107259809</v>
+        <v>102.0759242279741</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>171.0241302356773</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>30.73978049030367</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>201.763910725981</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>40.3300042762892</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>201.7639107259806</v>
       </c>
       <c r="Q24" t="n">
-        <v>201.7639107259821</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>245.0772104151139</v>
       </c>
       <c r="L26" t="n">
-        <v>285.0446134628295</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>139.1864910342714</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>88.37845819464889</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>259.6581978661359</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>191.5562702052835</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,22 +10188,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>182.7266066993658</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>79.65754533222713</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>246.8399489673031</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>248.1835801751257</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>40.3300042762892</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>76.351498408485</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>79.65754533222713</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>58.14107827789653</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>223.1075413085578</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>112.1520044143806</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>186.2038826090732</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>170.7176123629533</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>276.5410475228498</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>206.4714827895858</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>112.1520044143805</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>159.2110322455831</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>122.0375873408733</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>40.3300042762892</v>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>206.4714827895858</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>218.547293299859</v>
+        <v>276.5410475228497</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>168.0712077810168</v>
+        <v>168.0712077810165</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>113.1774118054375</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>113.1774118054369</v>
       </c>
       <c r="R41" t="n">
         <v>40.3300042762892</v>
@@ -11139,25 +11139,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>206.4714827895851</v>
       </c>
       <c r="L42" t="n">
-        <v>242.0537561006237</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>170.7176123629534</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>276.5410475228495</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.2411618488586</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,13 +11297,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>113.1774118054379</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>223.1075413085574</v>
       </c>
       <c r="M44" t="n">
-        <v>168.0712077810169</v>
+        <v>58.14107827789564</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>141.8727930742047</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>215.0487018978228</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>276.5410475228495</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>206.4714827895851</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>73.97330835439264</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>237.48457607362</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>226.8947259232954</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>254.1420543748742</v>
       </c>
       <c r="F11" t="n">
-        <v>279.0877300443239</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>284.7244505358286</v>
+        <v>172.7806316899712</v>
       </c>
       <c r="H11" t="n">
         <v>183.1136930274269</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.6552833021291</v>
+        <v>17.65528330212913</v>
       </c>
       <c r="T11" t="n">
-        <v>83.0944345801435</v>
+        <v>83.09443458014353</v>
       </c>
       <c r="U11" t="n">
         <v>123.3341395078955</v>
@@ -23318,7 +23318,7 @@
         <v>199.9639427727474</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>221.4526530200255</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>237.48457607362</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>279.0877300443239</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>284.7244505358286</v>
       </c>
       <c r="H14" t="n">
         <v>183.1136930274269</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>17.65528330212919</v>
       </c>
       <c r="T14" t="n">
-        <v>83.09443458014351</v>
+        <v>58.94922942240715</v>
       </c>
       <c r="U14" t="n">
-        <v>123.3341395078955</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>199.9639427727474</v>
@@ -23558,10 +23558,10 @@
         <v>221.4526530200255</v>
       </c>
       <c r="X14" t="n">
-        <v>241.9427849810815</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>150.4421802648646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>61445.72540377787</v>
+      </c>
+      <c r="C2" t="n">
         <v>61445.72540377788</v>
-      </c>
-      <c r="C2" t="n">
-        <v>61445.72540377786</v>
       </c>
       <c r="D2" t="n">
         <v>61445.72540377788</v>
       </c>
       <c r="E2" t="n">
-        <v>52728.01633737615</v>
+        <v>52728.01633737612</v>
       </c>
       <c r="F2" t="n">
-        <v>52728.01633737614</v>
+        <v>52728.01633737613</v>
       </c>
       <c r="G2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="H2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="I2" t="n">
-        <v>61578.13273982129</v>
+        <v>61578.13273982128</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982129</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="K2" t="n">
         <v>61578.1327398213</v>
@@ -26344,16 +26344,16 @@
         <v>61578.13273982131</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982129</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982128</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982127</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.1327398213</v>
+        <v>61578.13273982128</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>766266.5351224337</v>
+        <v>766266.5351224333</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92112.12268774903</v>
+        <v>92112.12268774913</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111884.0815365099</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>92112.122687749</v>
+        <v>92112.1226877491</v>
       </c>
       <c r="M3" t="n">
-        <v>83853.86775413115</v>
+        <v>83853.86775413105</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26430,10 +26430,10 @@
         <v>161029.3996972911</v>
       </c>
       <c r="G4" t="n">
-        <v>228380.8004634455</v>
+        <v>228380.8004634456</v>
       </c>
       <c r="H4" t="n">
-        <v>228380.8004634455</v>
+        <v>228380.8004634456</v>
       </c>
       <c r="I4" t="n">
         <v>228380.8004634456</v>
@@ -26451,13 +26451,13 @@
         <v>228109.4307260193</v>
       </c>
       <c r="N4" t="n">
-        <v>228109.4307260195</v>
+        <v>228109.4307260193</v>
       </c>
       <c r="O4" t="n">
-        <v>228109.4307260194</v>
+        <v>228109.4307260193</v>
       </c>
       <c r="P4" t="n">
-        <v>228109.4307260194</v>
+        <v>228109.4307260193</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47553.01820892905</v>
+        <v>47553.01820892903</v>
       </c>
       <c r="F5" t="n">
-        <v>47553.01820892902</v>
+        <v>47553.01820892903</v>
       </c>
       <c r="G5" t="n">
+        <v>57232.7357617245</v>
+      </c>
+      <c r="H5" t="n">
+        <v>57232.7357617245</v>
+      </c>
+      <c r="I5" t="n">
         <v>57232.73576172449</v>
       </c>
-      <c r="H5" t="n">
-        <v>57232.73576172449</v>
-      </c>
-      <c r="I5" t="n">
-        <v>57232.7357617245</v>
-      </c>
       <c r="J5" t="n">
+        <v>72488.96662948877</v>
+      </c>
+      <c r="K5" t="n">
         <v>72488.9666294888</v>
       </c>
-      <c r="K5" t="n">
-        <v>72488.96662948882</v>
-      </c>
       <c r="L5" t="n">
-        <v>72488.96662948882</v>
+        <v>72488.9666294888</v>
       </c>
       <c r="M5" t="n">
         <v>59620.18961222711</v>
       </c>
       <c r="N5" t="n">
-        <v>59620.18961222715</v>
+        <v>59620.18961222713</v>
       </c>
       <c r="O5" t="n">
         <v>59620.18961222711</v>
       </c>
       <c r="P5" t="n">
-        <v>59620.18961222713</v>
+        <v>59620.18961222711</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-435332.6056983318</v>
+        <v>-435337.0192762</v>
       </c>
       <c r="C6" t="n">
-        <v>-435332.6056983319</v>
+        <v>-435337.0192762</v>
       </c>
       <c r="D6" t="n">
-        <v>-435332.6056983318</v>
+        <v>-435337.0192762</v>
       </c>
       <c r="E6" t="n">
-        <v>-922120.9366912778</v>
+        <v>-922415.9405713588</v>
       </c>
       <c r="F6" t="n">
-        <v>-155854.4015688439</v>
+        <v>-156149.4054489255</v>
       </c>
       <c r="G6" t="n">
-        <v>-316147.5261730978</v>
+        <v>-316147.526173098</v>
       </c>
       <c r="H6" t="n">
         <v>-224035.4034853488</v>
@@ -26546,19 +26546,19 @@
         <v>-349731.5389794582</v>
       </c>
       <c r="K6" t="n">
-        <v>-237847.4574429484</v>
+        <v>-237847.4574429485</v>
       </c>
       <c r="L6" t="n">
-        <v>-329959.5801306973</v>
+        <v>-329959.5801306975</v>
       </c>
       <c r="M6" t="n">
-        <v>-310005.3553525563</v>
+        <v>-310005.3553525562</v>
       </c>
       <c r="N6" t="n">
-        <v>-226151.4875984253</v>
+        <v>-226151.4875984252</v>
       </c>
       <c r="O6" t="n">
-        <v>-226151.4875984251</v>
+        <v>-226151.4875984252</v>
       </c>
       <c r="P6" t="n">
         <v>-226151.4875984252</v>
@@ -26698,22 +26698,22 @@
         <v>127.7883156973875</v>
       </c>
       <c r="G2" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="H2" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="I2" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="J2" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="K2" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="M2" t="n">
         <v>219.9574880523502</v>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>694.0053563773456</v>
+        <v>694.0053563773454</v>
       </c>
       <c r="F3" t="n">
-        <v>694.0053563773453</v>
+        <v>694.0053563773454</v>
       </c>
       <c r="G3" t="n">
         <v>694.0053563773454</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450534</v>
+        <v>356.5898935450531</v>
       </c>
       <c r="F4" t="n">
-        <v>356.589893545053</v>
+        <v>356.5898935450531</v>
       </c>
       <c r="G4" t="n">
         <v>356.589893545053</v>
@@ -26808,28 +26808,28 @@
         <v>356.589893545053</v>
       </c>
       <c r="I4" t="n">
-        <v>356.5898935450533</v>
+        <v>356.5898935450529</v>
       </c>
       <c r="J4" t="n">
-        <v>784.2094129550527</v>
+        <v>784.2094129550521</v>
       </c>
       <c r="K4" t="n">
-        <v>784.209412955053</v>
+        <v>784.2094129550526</v>
       </c>
       <c r="L4" t="n">
-        <v>784.209412955053</v>
+        <v>784.2094129550526</v>
       </c>
       <c r="M4" t="n">
         <v>427.6195194099994</v>
       </c>
       <c r="N4" t="n">
-        <v>427.61951941</v>
+        <v>427.6195194099994</v>
       </c>
       <c r="O4" t="n">
-        <v>427.6195194099994</v>
+        <v>427.6195194099992</v>
       </c>
       <c r="P4" t="n">
-        <v>427.6195194099996</v>
+        <v>427.6195194099991</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="M2" t="n">
-        <v>104.8173346926639</v>
+        <v>104.8173346926638</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>694.0053563773456</v>
+        <v>694.0053563773454</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450534</v>
+        <v>356.5898935450531</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.6195194099994</v>
+        <v>427.6195194099993</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>356.5898935450534</v>
+        <v>356.5898935450531</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.7883156973875</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>127.7883156973875</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>127.7883156973875</v>
+        <v>114.2528574166192</v>
       </c>
       <c r="G12" t="n">
         <v>127.7883156973875</v>
       </c>
       <c r="H12" t="n">
-        <v>97.81846504080858</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.00095315743242</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,13 +28217,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>127.7883156973875</v>
       </c>
       <c r="T12" t="n">
         <v>127.7883156973875</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>127.7883156973875</v>
       </c>
       <c r="V12" t="n">
         <v>127.7883156973875</v>
@@ -28235,7 +28235,7 @@
         <v>127.7883156973875</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.46549487666252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28263,13 +28263,13 @@
         <v>127.7883156973875</v>
       </c>
       <c r="H13" t="n">
-        <v>112.4259876766443</v>
+        <v>127.7883156973875</v>
       </c>
       <c r="I13" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J13" t="n">
-        <v>4.879185747056127</v>
+        <v>4.879185747056155</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S13" t="n">
-        <v>127.7883156973875</v>
+        <v>112.425987676645</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>127.7883156973875</v>
       </c>
       <c r="I14" t="n">
-        <v>102.9155217242246</v>
+        <v>102.9155217242245</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>127.7883156973875</v>
       </c>
       <c r="C15" t="n">
         <v>127.7883156973875</v>
@@ -28415,16 +28415,16 @@
         <v>127.7883156973875</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>24.46549487666398</v>
       </c>
       <c r="G15" t="n">
-        <v>127.7883156973875</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I15" t="n">
-        <v>38.00095315743243</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.475382974551593</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>127.7883156973875</v>
@@ -28460,7 +28460,7 @@
         <v>127.7883156973875</v>
       </c>
       <c r="U15" t="n">
-        <v>106.7774744420681</v>
+        <v>127.7883156973875</v>
       </c>
       <c r="V15" t="n">
         <v>127.7883156973875</v>
@@ -28488,10 +28488,10 @@
         <v>127.7883156973875</v>
       </c>
       <c r="D16" t="n">
-        <v>127.7883156973875</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.3051734237012</v>
       </c>
       <c r="F16" t="n">
         <v>127.7883156973875</v>
@@ -28551,7 +28551,7 @@
         <v>127.7883156973875</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.3051734237012</v>
+        <v>127.7883156973875</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="C17" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="D17" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="E17" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="F17" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="G17" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="H17" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="I17" t="n">
         <v>102.9155217242245</v>
@@ -28618,19 +28618,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U17" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V17" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W17" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X17" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="Y17" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28652,13 +28652,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I18" t="n">
         <v>38.00095315743242</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.475382974551579</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>116.9196918541598</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U18" t="n">
         <v>225.8431737758271</v>
@@ -28703,10 +28703,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>76.17302929821804</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28734,16 +28734,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>85.11912622714739</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1003325314225</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>117.8149057650245</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.879185747056155</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V19" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W19" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>208.5520829056233</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="C20" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="D20" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="E20" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="F20" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="G20" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="H20" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="I20" t="n">
         <v>102.9155217242245</v>
@@ -28855,19 +28855,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U20" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V20" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W20" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X20" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="Y20" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
     </row>
     <row r="21">
@@ -28883,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28892,10 +28892,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>78.91714296081952</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I21" t="n">
         <v>38.00095315743242</v>
@@ -28928,25 +28928,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U21" t="n">
         <v>225.8431737758271</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>242.9284690570738</v>
+        <v>76.17302929821804</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,19 +28956,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>36.89873448099024</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.7394942895816</v>
@@ -28980,7 +28980,7 @@
         <v>117.8149057650245</v>
       </c>
       <c r="J22" t="n">
-        <v>4.879185747056155</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29010,19 +29010,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>222.598335043079</v>
       </c>
       <c r="U22" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>179.3347663295065</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="C23" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="D23" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="E23" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="F23" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="G23" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="H23" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="I23" t="n">
         <v>102.9155217242245</v>
@@ -29092,19 +29092,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U23" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V23" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W23" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X23" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="Y23" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
     </row>
     <row r="24">
@@ -29120,19 +29120,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>21.44689897109012</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.850750924965</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I24" t="n">
         <v>38.00095315743242</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.475382974551579</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>143.9556929504599</v>
@@ -29177,7 +29177,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>76.17302929821869</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.4082247170805</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -29205,13 +29205,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7394942895816</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.1003325314225</v>
+        <v>24.8943245823975</v>
       </c>
       <c r="I25" t="n">
         <v>117.8149057650245</v>
@@ -29247,22 +29247,22 @@
         <v>202.20662642754</v>
       </c>
       <c r="T25" t="n">
-        <v>222.598335043079</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>242.9284690570738</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W25" t="n">
-        <v>242.9284690570738</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="C26" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="D26" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="E26" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="F26" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="G26" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="H26" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="I26" t="n">
         <v>102.9155217242245</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="T26" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="U26" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="V26" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="W26" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="X26" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="Y26" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
     </row>
     <row r="27">
@@ -29430,31 +29430,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="C28" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="D28" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="E28" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="F28" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="G28" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="H28" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="J28" t="n">
-        <v>4.879185747056155</v>
+        <v>48.22200778663692</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>43.34282203958261</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29478,28 +29478,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="S28" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="T28" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="U28" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="V28" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="W28" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="X28" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="C29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="D29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="E29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="F29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="G29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="H29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="I29" t="n">
         <v>102.9155217242245</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="T29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="U29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="V29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="W29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="X29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="Y29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
     </row>
     <row r="30">
@@ -29667,28 +29667,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="C31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="D31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="E31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="F31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="G31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="H31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="J31" t="n">
         <v>4.879185747056155</v>
@@ -29712,31 +29712,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>43.34282203958262</v>
+        <v>43.34282203958055</v>
       </c>
       <c r="R31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="S31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="T31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="U31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="V31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="W31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="X31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="C32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="D32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="E32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="F32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="G32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="H32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="I32" t="n">
         <v>102.9155217242245</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="T32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="U32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="V32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="W32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="X32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="Y32" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="C34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="D34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="E34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="F34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="G34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="H34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="J34" t="n">
         <v>4.879185747056155</v>
@@ -29940,7 +29940,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>43.34282203958313</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29949,31 +29949,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>43.34282203958078</v>
       </c>
       <c r="R34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="S34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="T34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="U34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="V34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="W34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="X34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596864</v>
       </c>
     </row>
     <row r="35">
@@ -30074,16 +30074,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H36" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>38.00095315743242</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,25 +30113,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="V36" t="n">
-        <v>219.9574880523502</v>
+        <v>39.20753011443617</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>200.4108521760425</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30147,13 +30147,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -30162,10 +30162,10 @@
         <v>151.1003325314225</v>
       </c>
       <c r="I37" t="n">
-        <v>117.8149057650245</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.879185747056155</v>
+        <v>0.9960089200779971</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30204,10 +30204,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>174.9773558614096</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30308,19 +30308,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>21.3018004641559</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H39" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>38.00095315743242</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,25 +30350,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>39.20753011443597</v>
       </c>
       <c r="W39" t="n">
-        <v>219.9574880523502</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30390,19 +30390,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>39.53586622803279</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3.638048853258084</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>4.879185747056155</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,13 +30426,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>121.0220718256556</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>202.20662642754</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.9574880523502</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>219.9574880523502</v>
@@ -30441,13 +30441,13 @@
         <v>219.9574880523502</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="X40" t="n">
         <v>219.9574880523502</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>59.62837790218055</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30551,10 +30551,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I42" t="n">
         <v>38.00095315743242</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.475382974551579</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>143.9556929504599</v>
@@ -30596,13 +30596,13 @@
         <v>219.9574880523502</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>39.20753011443685</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30618,28 +30618,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>105.8035656191788</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7394942895816</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I43" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J43" t="n">
-        <v>4.879185747056155</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,13 +30666,13 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="U43" t="n">
-        <v>219.9574880523502</v>
+        <v>90.55343212409394</v>
       </c>
       <c r="V43" t="n">
         <v>219.9574880523502</v>
@@ -30681,10 +30681,10 @@
         <v>219.9574880523502</v>
       </c>
       <c r="X43" t="n">
-        <v>219.9574880523502</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -30779,13 +30779,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>99.07157058135579</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>135.850750924965</v>
@@ -30824,16 +30824,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>219.9574880523502</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>39.2075301144373</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30855,16 +30855,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>70.50106856945698</v>
       </c>
       <c r="D46" t="n">
-        <v>8.453799954942497</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.7394942895816</v>
@@ -30900,10 +30900,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T46" t="n">
         <v>219.9574880523502</v>
@@ -30912,16 +30912,16 @@
         <v>219.9574880523502</v>
       </c>
       <c r="V46" t="n">
-        <v>219.9574880523502</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>219.9574880523502</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.789971281918975</v>
+        <v>2.789971281918974</v>
       </c>
       <c r="H11" t="n">
-        <v>28.57279339095271</v>
+        <v>28.5727933909527</v>
       </c>
       <c r="I11" t="n">
         <v>107.5603678461814</v>
@@ -31762,37 +31762,37 @@
         <v>236.7953250887708</v>
       </c>
       <c r="K11" t="n">
-        <v>354.8948094524011</v>
+        <v>354.894809452401</v>
       </c>
       <c r="L11" t="n">
-        <v>440.278393071429</v>
+        <v>440.2783930714289</v>
       </c>
       <c r="M11" t="n">
-        <v>489.8945448562556</v>
+        <v>489.8945448562554</v>
       </c>
       <c r="N11" t="n">
-        <v>497.8215507610079</v>
+        <v>497.8215507610078</v>
       </c>
       <c r="O11" t="n">
-        <v>470.0787738264261</v>
+        <v>470.078773826426</v>
       </c>
       <c r="P11" t="n">
-        <v>401.2013578040513</v>
+        <v>401.2013578040512</v>
       </c>
       <c r="Q11" t="n">
-        <v>301.285511270328</v>
+        <v>301.2855112703278</v>
       </c>
       <c r="R11" t="n">
-        <v>175.255533537843</v>
+        <v>175.2555335378429</v>
       </c>
       <c r="S11" t="n">
-        <v>63.57647058672871</v>
+        <v>63.57647058672869</v>
       </c>
       <c r="T11" t="n">
         <v>12.21309928660032</v>
       </c>
       <c r="U11" t="n">
-        <v>0.223197702553518</v>
+        <v>0.2231977025535179</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>14.41697919568788</v>
       </c>
       <c r="I12" t="n">
-        <v>51.39567969398268</v>
+        <v>51.39567969398266</v>
       </c>
       <c r="J12" t="n">
-        <v>141.0336734124944</v>
+        <v>141.0336734124943</v>
       </c>
       <c r="K12" t="n">
         <v>241.0490113749503</v>
       </c>
       <c r="L12" t="n">
-        <v>324.12014308925</v>
+        <v>324.1201430892499</v>
       </c>
       <c r="M12" t="n">
-        <v>378.2329192256533</v>
+        <v>378.2329192256532</v>
       </c>
       <c r="N12" t="n">
-        <v>388.2436191303794</v>
+        <v>388.2436191303793</v>
       </c>
       <c r="O12" t="n">
-        <v>355.1670619566214</v>
+        <v>355.1670619566213</v>
       </c>
       <c r="P12" t="n">
         <v>285.0528793014799</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.5503008679837</v>
+        <v>190.5503008679836</v>
       </c>
       <c r="R12" t="n">
-        <v>92.68245117809158</v>
+        <v>92.68245117809155</v>
       </c>
       <c r="S12" t="n">
-        <v>27.72747815337789</v>
+        <v>27.72747815337788</v>
       </c>
       <c r="T12" t="n">
-        <v>6.016895495384721</v>
+        <v>6.016895495384719</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09820830514773762</v>
+        <v>0.0982083051477376</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,19 +31914,19 @@
         <v>11.12683997601712</v>
       </c>
       <c r="I13" t="n">
-        <v>37.63556916223376</v>
+        <v>37.63556916223375</v>
       </c>
       <c r="J13" t="n">
-        <v>88.47999436961665</v>
+        <v>88.47999436961662</v>
       </c>
       <c r="K13" t="n">
-        <v>145.3998107295488</v>
+        <v>145.3998107295487</v>
       </c>
       <c r="L13" t="n">
-        <v>186.0616983310674</v>
+        <v>186.0616983310673</v>
       </c>
       <c r="M13" t="n">
-        <v>196.1759731149929</v>
+        <v>196.1759731149928</v>
       </c>
       <c r="N13" t="n">
         <v>191.5113469491781</v>
@@ -31941,16 +31941,16 @@
         <v>104.7948088129792</v>
       </c>
       <c r="R13" t="n">
-        <v>56.27131955151393</v>
+        <v>56.27131955151392</v>
       </c>
       <c r="S13" t="n">
-        <v>21.80997160943231</v>
+        <v>21.8099716094323</v>
       </c>
       <c r="T13" t="n">
-        <v>5.347254385202497</v>
+        <v>5.347254385202495</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06826282193875538</v>
+        <v>0.06826282193875535</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,10 +31993,10 @@
         <v>28.5727933909527</v>
       </c>
       <c r="I14" t="n">
-        <v>107.5603678461813</v>
+        <v>107.5603678461814</v>
       </c>
       <c r="J14" t="n">
-        <v>236.7953250887707</v>
+        <v>236.7953250887708</v>
       </c>
       <c r="K14" t="n">
         <v>354.894809452401</v>
@@ -32008,10 +32008,10 @@
         <v>489.8945448562554</v>
       </c>
       <c r="N14" t="n">
-        <v>497.8215507610077</v>
+        <v>497.8215507610078</v>
       </c>
       <c r="O14" t="n">
-        <v>470.0787738264258</v>
+        <v>470.078773826426</v>
       </c>
       <c r="P14" t="n">
         <v>401.2013578040512</v>
@@ -32023,10 +32023,10 @@
         <v>175.2555335378429</v>
       </c>
       <c r="S14" t="n">
-        <v>63.57647058672868</v>
+        <v>63.57647058672869</v>
       </c>
       <c r="T14" t="n">
-        <v>12.21309928660031</v>
+        <v>12.21309928660032</v>
       </c>
       <c r="U14" t="n">
         <v>0.2231977025535179</v>
@@ -32069,46 +32069,46 @@
         <v>1.492766238245611</v>
       </c>
       <c r="H15" t="n">
-        <v>14.41697919568787</v>
+        <v>14.41697919568788</v>
       </c>
       <c r="I15" t="n">
-        <v>51.39567969398265</v>
+        <v>51.39567969398266</v>
       </c>
       <c r="J15" t="n">
         <v>141.0336734124943</v>
       </c>
       <c r="K15" t="n">
-        <v>241.0490113749502</v>
+        <v>241.0490113749503</v>
       </c>
       <c r="L15" t="n">
-        <v>324.1201430892498</v>
+        <v>324.1201430892499</v>
       </c>
       <c r="M15" t="n">
-        <v>378.2329192256531</v>
+        <v>378.2329192256532</v>
       </c>
       <c r="N15" t="n">
-        <v>388.2436191303792</v>
+        <v>388.2436191303793</v>
       </c>
       <c r="O15" t="n">
-        <v>355.1670619566212</v>
+        <v>355.1670619566213</v>
       </c>
       <c r="P15" t="n">
-        <v>285.0528793014798</v>
+        <v>285.0528793014799</v>
       </c>
       <c r="Q15" t="n">
         <v>190.5503008679836</v>
       </c>
       <c r="R15" t="n">
-        <v>92.68245117809154</v>
+        <v>92.68245117809155</v>
       </c>
       <c r="S15" t="n">
         <v>27.72747815337788</v>
       </c>
       <c r="T15" t="n">
-        <v>6.016895495384718</v>
+        <v>6.016895495384719</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09820830514773758</v>
+        <v>0.0982083051477376</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,7 +32154,7 @@
         <v>37.63556916223375</v>
       </c>
       <c r="J16" t="n">
-        <v>88.47999436961661</v>
+        <v>88.47999436961662</v>
       </c>
       <c r="K16" t="n">
         <v>145.3998107295487</v>
@@ -32166,28 +32166,28 @@
         <v>196.1759731149928</v>
       </c>
       <c r="N16" t="n">
-        <v>191.511346949178</v>
+        <v>191.5113469491781</v>
       </c>
       <c r="O16" t="n">
-        <v>176.8917259172945</v>
+        <v>176.8917259172946</v>
       </c>
       <c r="P16" t="n">
-        <v>151.3614305121999</v>
+        <v>151.3614305122</v>
       </c>
       <c r="Q16" t="n">
-        <v>104.7948088129791</v>
+        <v>104.7948088129792</v>
       </c>
       <c r="R16" t="n">
-        <v>56.27131955151391</v>
+        <v>56.27131955151392</v>
       </c>
       <c r="S16" t="n">
         <v>21.8099716094323</v>
       </c>
       <c r="T16" t="n">
-        <v>5.347254385202494</v>
+        <v>5.347254385202495</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06826282193875534</v>
+        <v>0.06826282193875535</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.74942056208454</v>
+        <v>55.74942056208448</v>
       </c>
       <c r="K11" t="n">
-        <v>134.8049584074206</v>
+        <v>134.8049584074205</v>
       </c>
       <c r="L11" t="n">
-        <v>204.5119781014418</v>
+        <v>204.5119781014417</v>
       </c>
       <c r="M11" t="n">
-        <v>259.5483116289829</v>
+        <v>259.5483116289827</v>
       </c>
       <c r="N11" t="n">
-        <v>268.408487164417</v>
+        <v>268.4084871644168</v>
       </c>
       <c r="O11" t="n">
-        <v>239.9805624047393</v>
+        <v>239.9805624047392</v>
       </c>
       <c r="P11" t="n">
-        <v>169.9683620487818</v>
+        <v>169.9683620487817</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.97982139587847</v>
+        <v>78.97982139587836</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.19604674582769</v>
+        <v>140.2870820862365</v>
       </c>
       <c r="K12" t="n">
-        <v>103.2075724005913</v>
+        <v>178.880447786164</v>
       </c>
       <c r="L12" t="n">
-        <v>185.5657633093758</v>
+        <v>185.5657633093757</v>
       </c>
       <c r="M12" t="n">
-        <v>236.098885303635</v>
+        <v>236.0988853036349</v>
       </c>
       <c r="N12" t="n">
-        <v>256.9019070470462</v>
+        <v>256.9019070470461</v>
       </c>
       <c r="O12" t="n">
-        <v>212.570817512177</v>
+        <v>212.5708175121769</v>
       </c>
       <c r="P12" t="n">
-        <v>352.842382613132</v>
+        <v>151.0784718871496</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.56852678196216</v>
+        <v>50.56852678196208</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,19 +35574,19 @@
         <v>213.6517235913835</v>
       </c>
       <c r="M13" t="n">
-        <v>235.7598500768335</v>
+        <v>235.7598500768334</v>
       </c>
       <c r="N13" t="n">
         <v>235.6435193284067</v>
       </c>
       <c r="O13" t="n">
-        <v>201.4768538313343</v>
+        <v>201.4768538313342</v>
       </c>
       <c r="P13" t="n">
         <v>148.6399897770935</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.6327655612848</v>
+        <v>18.63276556128477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>55.74942056208442</v>
+        <v>55.74942056208448</v>
       </c>
       <c r="K14" t="n">
-        <v>134.8049584074204</v>
+        <v>134.8049584074205</v>
       </c>
       <c r="L14" t="n">
-        <v>204.5119781014416</v>
+        <v>204.5119781014417</v>
       </c>
       <c r="M14" t="n">
         <v>259.5483116289827</v>
@@ -35659,13 +35659,13 @@
         <v>268.4084871644168</v>
       </c>
       <c r="O14" t="n">
-        <v>239.9805624047391</v>
+        <v>239.9805624047392</v>
       </c>
       <c r="P14" t="n">
-        <v>169.9683620487816</v>
+        <v>169.9683620487817</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.9798213958783</v>
+        <v>78.97982139587836</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.19604674582763</v>
+        <v>116.2719709738022</v>
       </c>
       <c r="K15" t="n">
-        <v>304.9714831265725</v>
+        <v>103.2075724005913</v>
       </c>
       <c r="L15" t="n">
         <v>185.5657633093757</v>
       </c>
       <c r="M15" t="n">
-        <v>236.0988853036348</v>
+        <v>236.0988853036349</v>
       </c>
       <c r="N15" t="n">
-        <v>256.9019070470459</v>
+        <v>356.5898935450531</v>
       </c>
       <c r="O15" t="n">
-        <v>212.5708175121767</v>
+        <v>212.5708175121769</v>
       </c>
       <c r="P15" t="n">
         <v>151.0784718871496</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.56852678196205</v>
+        <v>50.56852678196208</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>123.1303189036658</v>
+        <v>123.1303189036659</v>
       </c>
       <c r="L16" t="n">
-        <v>213.6517235913834</v>
+        <v>213.6517235913835</v>
       </c>
       <c r="M16" t="n">
         <v>235.7598500768334</v>
       </c>
       <c r="N16" t="n">
-        <v>235.6435193284066</v>
+        <v>235.6435193284067</v>
       </c>
       <c r="O16" t="n">
         <v>201.4768538313342</v>
       </c>
       <c r="P16" t="n">
-        <v>148.6399897770934</v>
+        <v>148.6399897770935</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.63276556128474</v>
+        <v>18.63276556128477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>236.0988853036349</v>
       </c>
       <c r="N18" t="n">
-        <v>256.9019070470461</v>
+        <v>356.589893545053</v>
       </c>
       <c r="O18" t="n">
         <v>212.5708175121769</v>
@@ -35981,7 +35981,7 @@
         <v>151.0784718871496</v>
       </c>
       <c r="Q18" t="n">
-        <v>252.332437507943</v>
+        <v>152.6444510099362</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>103.2075724005913</v>
       </c>
       <c r="L21" t="n">
-        <v>356.589893545053</v>
+        <v>185.5657633093757</v>
       </c>
       <c r="M21" t="n">
         <v>236.0988853036349</v>
@@ -36212,10 +36212,10 @@
         <v>256.9019070470461</v>
       </c>
       <c r="O21" t="n">
-        <v>243.3105980024805</v>
+        <v>212.5708175121769</v>
       </c>
       <c r="P21" t="n">
-        <v>151.0784718871496</v>
+        <v>352.8423826131307</v>
       </c>
       <c r="Q21" t="n">
         <v>50.56852678196208</v>
@@ -36376,7 +36376,7 @@
         <v>169.9683620487817</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.97982139587921</v>
+        <v>78.97982139587836</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36452,10 +36452,10 @@
         <v>212.5708175121769</v>
       </c>
       <c r="P24" t="n">
-        <v>151.0784718871496</v>
+        <v>352.8423826131302</v>
       </c>
       <c r="Q24" t="n">
-        <v>252.3324375079441</v>
+        <v>50.56852678196208</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>224.8460357341582</v>
+        <v>55.74942056208448</v>
       </c>
       <c r="K26" t="n">
-        <v>458.9503709785852</v>
+        <v>379.8821688225344</v>
       </c>
       <c r="L26" t="n">
-        <v>489.5565915642712</v>
+        <v>622.1731926518921</v>
       </c>
       <c r="M26" t="n">
         <v>259.5483116289827</v>
       </c>
       <c r="N26" t="n">
-        <v>268.4084871644168</v>
+        <v>705.755411576401</v>
       </c>
       <c r="O26" t="n">
         <v>620.7807436674846</v>
       </c>
       <c r="P26" t="n">
-        <v>491.7670702202643</v>
+        <v>169.9683620487817</v>
       </c>
       <c r="Q26" t="n">
         <v>291.294812055783</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14.19604674582763</v>
+        <v>140.2870820862365</v>
       </c>
       <c r="K27" t="n">
-        <v>242.3940634348627</v>
+        <v>103.2075724005913</v>
       </c>
       <c r="L27" t="n">
-        <v>556.4061086128349</v>
+        <v>185.5657633093757</v>
       </c>
       <c r="M27" t="n">
         <v>701.8039490536348</v>
       </c>
       <c r="N27" t="n">
-        <v>256.9019070470461</v>
+        <v>736.2442813905996</v>
       </c>
       <c r="O27" t="n">
-        <v>606.4331367889064</v>
+        <v>300.9492757068257</v>
       </c>
       <c r="P27" t="n">
         <v>151.0784718871496</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.56852678196208</v>
+        <v>260.6458145178112</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>43.34282203958076</v>
       </c>
       <c r="K28" t="n">
         <v>123.1303189036659</v>
@@ -36765,7 +36765,7 @@
         <v>235.6435193284067</v>
       </c>
       <c r="O28" t="n">
-        <v>244.8196758709169</v>
+        <v>201.4768538313342</v>
       </c>
       <c r="P28" t="n">
         <v>148.6399897770935</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>55.74942056208448</v>
+        <v>224.8460357341582</v>
       </c>
       <c r="K29" t="n">
         <v>458.9503709785852</v>
       </c>
       <c r="L29" t="n">
-        <v>204.5119781014417</v>
+        <v>464.1701759675776</v>
       </c>
       <c r="M29" t="n">
-        <v>709.0618451218152</v>
+        <v>259.5483116289827</v>
       </c>
       <c r="N29" t="n">
         <v>268.4084871644168</v>
@@ -36850,7 +36850,7 @@
         <v>491.7670702202643</v>
       </c>
       <c r="Q29" t="n">
-        <v>270.5360916011618</v>
+        <v>291.294812055783</v>
       </c>
       <c r="R29" t="n">
         <v>25.38641559669324</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>14.19604674582763</v>
+        <v>140.2870820862365</v>
       </c>
       <c r="K30" t="n">
         <v>367.6728094131698</v>
       </c>
       <c r="L30" t="n">
-        <v>185.5657633093757</v>
+        <v>556.4061086128349</v>
       </c>
       <c r="M30" t="n">
         <v>236.0988853036349</v>
       </c>
       <c r="N30" t="n">
-        <v>439.6285137464118</v>
+        <v>256.9019070470461</v>
       </c>
       <c r="O30" t="n">
-        <v>606.4331367889064</v>
+        <v>292.228362844404</v>
       </c>
       <c r="P30" t="n">
         <v>469.5412405270868</v>
@@ -37008,7 +37008,7 @@
         <v>148.6399897770935</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.97558760086739</v>
+        <v>61.97558760086532</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>224.8460357341582</v>
+        <v>55.74942056208448</v>
       </c>
       <c r="K32" t="n">
-        <v>458.9503709785852</v>
+        <v>381.6449073747236</v>
       </c>
       <c r="L32" t="n">
-        <v>622.1731926518921</v>
+        <v>204.5119781014417</v>
       </c>
       <c r="M32" t="n">
-        <v>259.5483116289827</v>
+        <v>709.0618451218152</v>
       </c>
       <c r="N32" t="n">
-        <v>268.4084871644168</v>
+        <v>705.755411576401</v>
       </c>
       <c r="O32" t="n">
-        <v>488.1641425798649</v>
+        <v>239.9805624047392</v>
       </c>
       <c r="P32" t="n">
         <v>491.7670702202643</v>
@@ -37090,7 +37090,7 @@
         <v>291.294812055783</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>25.38641559669324</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>90.54754515431263</v>
+        <v>140.2870820862365</v>
       </c>
       <c r="K33" t="n">
-        <v>103.2075724005913</v>
+        <v>367.6728094131698</v>
       </c>
       <c r="L33" t="n">
         <v>556.4061086128349</v>
@@ -37160,7 +37160,7 @@
         <v>256.9019070470461</v>
       </c>
       <c r="O33" t="n">
-        <v>606.4331367889064</v>
+        <v>292.228362844404</v>
       </c>
       <c r="P33" t="n">
         <v>469.5412405270868</v>
@@ -37236,7 +37236,7 @@
         <v>235.7598500768334</v>
       </c>
       <c r="N34" t="n">
-        <v>278.9863413679898</v>
+        <v>235.6435193284067</v>
       </c>
       <c r="O34" t="n">
         <v>201.4768538313342</v>
@@ -37245,7 +37245,7 @@
         <v>148.6399897770935</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.63276556128477</v>
+        <v>61.97558760086555</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>224.8460357341582</v>
+        <v>113.890498839981</v>
       </c>
       <c r="K35" t="n">
         <v>134.8049584074205</v>
       </c>
       <c r="L35" t="n">
-        <v>204.5119781014417</v>
+        <v>427.6195194099994</v>
       </c>
       <c r="M35" t="n">
         <v>259.5483116289827</v>
@@ -37318,7 +37318,7 @@
         <v>268.4084871644168</v>
       </c>
       <c r="O35" t="n">
-        <v>352.1325668191199</v>
+        <v>239.9805624047392</v>
       </c>
       <c r="P35" t="n">
         <v>169.9683620487817</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>140.2870820862365</v>
+        <v>14.19604674582763</v>
       </c>
       <c r="K36" t="n">
         <v>103.2075724005913</v>
       </c>
       <c r="L36" t="n">
-        <v>371.7696459184489</v>
+        <v>185.5657633093757</v>
       </c>
       <c r="M36" t="n">
         <v>236.0988853036349</v>
       </c>
       <c r="N36" t="n">
-        <v>427.6195194099994</v>
+        <v>256.9019070470461</v>
       </c>
       <c r="O36" t="n">
         <v>212.5708175121769</v>
       </c>
       <c r="P36" t="n">
-        <v>151.0784718871496</v>
+        <v>427.6195194099994</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.56852678196208</v>
+        <v>257.0400095715478</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>55.74942056208448</v>
+        <v>224.8460357341582</v>
       </c>
       <c r="K38" t="n">
-        <v>134.8049584074205</v>
+        <v>246.956962821801</v>
       </c>
       <c r="L38" t="n">
         <v>204.5119781014417</v>
@@ -37552,7 +37552,7 @@
         <v>259.5483116289827</v>
       </c>
       <c r="N38" t="n">
-        <v>427.61951941</v>
+        <v>268.4084871644168</v>
       </c>
       <c r="O38" t="n">
         <v>239.9805624047392</v>
@@ -37561,7 +37561,7 @@
         <v>169.9683620487817</v>
       </c>
       <c r="Q38" t="n">
-        <v>201.0174087367517</v>
+        <v>78.97982139587836</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>14.19604674582763</v>
       </c>
       <c r="K39" t="n">
-        <v>367.6728094131698</v>
+        <v>309.6790551901771</v>
       </c>
       <c r="L39" t="n">
         <v>185.5657633093757</v>
@@ -37637,7 +37637,7 @@
         <v>212.5708175121769</v>
       </c>
       <c r="P39" t="n">
-        <v>369.6257651870087</v>
+        <v>427.6195194099994</v>
       </c>
       <c r="Q39" t="n">
         <v>50.56852678196208</v>
@@ -37786,7 +37786,7 @@
         <v>204.5119781014417</v>
       </c>
       <c r="M41" t="n">
-        <v>427.6195194099994</v>
+        <v>427.6195194099992</v>
       </c>
       <c r="N41" t="n">
         <v>268.4084871644168</v>
@@ -37795,10 +37795,10 @@
         <v>239.9805624047392</v>
       </c>
       <c r="P41" t="n">
-        <v>283.1457738542192</v>
+        <v>169.9683620487817</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.97982139587836</v>
+        <v>192.1572332013153</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>14.19604674582763</v>
       </c>
       <c r="K42" t="n">
-        <v>103.2075724005913</v>
+        <v>309.6790551901764</v>
       </c>
       <c r="L42" t="n">
-        <v>427.6195194099994</v>
+        <v>185.5657633093757</v>
       </c>
       <c r="M42" t="n">
         <v>236.0988853036349</v>
       </c>
       <c r="N42" t="n">
-        <v>427.6195194099994</v>
+        <v>256.9019070470461</v>
       </c>
       <c r="O42" t="n">
         <v>212.5708175121769</v>
       </c>
       <c r="P42" t="n">
-        <v>151.0784718871496</v>
+        <v>427.6195194099992</v>
       </c>
       <c r="Q42" t="n">
-        <v>120.8096886308207</v>
+        <v>50.56852678196208</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>55.74942056208448</v>
       </c>
       <c r="K44" t="n">
-        <v>247.9823702128584</v>
+        <v>134.8049584074205</v>
       </c>
       <c r="L44" t="n">
-        <v>204.5119781014417</v>
+        <v>427.6195194099991</v>
       </c>
       <c r="M44" t="n">
-        <v>427.6195194099996</v>
+        <v>317.6893899068783</v>
       </c>
       <c r="N44" t="n">
         <v>268.4084871644168</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>140.2870820862365</v>
+        <v>14.19604674582763</v>
       </c>
       <c r="K45" t="n">
-        <v>245.0803654747959</v>
+        <v>103.2075724005913</v>
       </c>
       <c r="L45" t="n">
         <v>185.5657633093757</v>
@@ -38108,13 +38108,13 @@
         <v>256.9019070470461</v>
       </c>
       <c r="O45" t="n">
-        <v>427.6195194099996</v>
+        <v>212.5708175121769</v>
       </c>
       <c r="P45" t="n">
-        <v>151.0784718871496</v>
+        <v>427.6195194099991</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.56852678196208</v>
+        <v>257.0400095715472</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
